--- a/論文関係/アンケート.xlsx
+++ b/論文関係/アンケート.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaili\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64BF706-7355-4AF8-8948-7A993C3BBAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 2" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="フォームの回答 1" sheetId="2" r:id="rId3"/>
     <sheet name="フォームの回答 1 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="244">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -871,11 +865,110 @@
     <t>震えている表現</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>テクスチャ, モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キャラクターパーティクル, モーション, テクスチャ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キャラクターパーティクル, モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション, 環境パーティクル</t>
+    <rPh sb="7" eb="9">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>環境パーティクル, 音</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>環境パーティクル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>環境パーティクル, モーション</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>環境パーティクル</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ラスター</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション フレームレート制限</t>
+    <rPh sb="13" eb="15">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション, 氷霧</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>音</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>音, 環境パーティクル</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>表情, モーション</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
@@ -1284,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1406,8 +1499,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,12 +1621,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="フォームの回答 2-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="フォームの回答 2-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="フォームの回答 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="フォームの回答 1-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
@@ -1520,39 +1649,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses2" displayName="Form_Responses2" ref="A1:AE6" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses2" displayName="Form_Responses2" ref="A1:AE6" headerRowCount="0">
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column25"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Column26"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Column27"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Column28"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Column29"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Column30"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Column31"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="14" name="Column14"/>
+    <tableColumn id="15" name="Column15"/>
+    <tableColumn id="16" name="Column16"/>
+    <tableColumn id="17" name="Column17"/>
+    <tableColumn id="18" name="Column18"/>
+    <tableColumn id="19" name="Column19"/>
+    <tableColumn id="20" name="Column20"/>
+    <tableColumn id="21" name="Column21"/>
+    <tableColumn id="22" name="Column22"/>
+    <tableColumn id="23" name="Column23"/>
+    <tableColumn id="24" name="Column24"/>
+    <tableColumn id="25" name="Column25"/>
+    <tableColumn id="26" name="Column26"/>
+    <tableColumn id="27" name="Column27"/>
+    <tableColumn id="28" name="Column28"/>
+    <tableColumn id="29" name="Column29"/>
+    <tableColumn id="30" name="Column30"/>
+    <tableColumn id="31" name="Column31"/>
   </tableColumns>
   <tableStyleInfo name="フォームの回答 2-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1564,39 +1693,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AE11" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AE11" headerRowCount="0">
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Column15"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Column16"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Column17"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Column18"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Column19"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Column20"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Column21"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Column22"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Column23"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Column24"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="Column25"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Column26"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Column27"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="Column28"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="Column29"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="Column30"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="Column31"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="14" name="Column14"/>
+    <tableColumn id="15" name="Column15"/>
+    <tableColumn id="16" name="Column16"/>
+    <tableColumn id="17" name="Column17"/>
+    <tableColumn id="18" name="Column18"/>
+    <tableColumn id="19" name="Column19"/>
+    <tableColumn id="20" name="Column20"/>
+    <tableColumn id="21" name="Column21"/>
+    <tableColumn id="22" name="Column22"/>
+    <tableColumn id="23" name="Column23"/>
+    <tableColumn id="24" name="Column24"/>
+    <tableColumn id="25" name="Column25"/>
+    <tableColumn id="26" name="Column26"/>
+    <tableColumn id="27" name="Column27"/>
+    <tableColumn id="28" name="Column28"/>
+    <tableColumn id="29" name="Column29"/>
+    <tableColumn id="30" name="Column30"/>
+    <tableColumn id="31" name="Column31"/>
   </tableColumns>
   <tableStyleInfo name="フォームの回答 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1608,39 +1737,39 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FD1AF324-325A-4071-B3EF-52CEA042DD70}" name="Form_Responses14" displayName="Form_Responses14" ref="A1:AE11" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Form_Responses14" displayName="Form_Responses14" ref="A1:AE10" headerRowCount="0">
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{6000ADBC-6549-4504-B673-A188840CC610}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{25AAE191-E954-41B9-A1B3-16B263D755CC}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{4A85F7C3-A961-40AE-8626-9537300494E8}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{04401C60-BA5F-465B-A72C-3FBAE22CF754}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{302240A2-B306-47E0-B5BC-BE1355522941}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{BAFDEE6F-937B-4EDA-A584-5018F27BD3F8}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{B6BD63D6-BBC2-4F88-A02D-C76545D3D8D7}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{B075B98B-3B96-46C0-A703-2AFCA79041AB}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{E5757F42-2B8C-41C2-ACF0-3BF6470D90B6}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{F284C10E-D526-4DD0-BDC1-0A4B2FF4EFE8}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{38429DD2-CCF3-4500-8241-91E67BD5D543}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{E0D47CAB-9B9A-42F2-BF1B-B06A011ED10A}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{CCA3C866-889F-4322-B07F-C1B472039707}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{EFD99121-6855-4756-9C80-562AF3BA77AF}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{6B237EE1-3E26-4D8F-98EB-A43A882E6BA1}" name="Column15"/>
-    <tableColumn id="16" xr3:uid="{85B79E0B-6ADF-42ED-9CFF-1EB590F35EEF}" name="Column16"/>
-    <tableColumn id="17" xr3:uid="{BC1A8543-688E-4179-8364-796600FBB576}" name="Column17"/>
-    <tableColumn id="18" xr3:uid="{67B2A54D-FD4F-4E7A-BD15-24F1D860B996}" name="Column18"/>
-    <tableColumn id="19" xr3:uid="{CDDFBEFC-3D69-42F9-AA33-33F89551A4C1}" name="Column19"/>
-    <tableColumn id="20" xr3:uid="{AAC27744-D93C-4795-8766-A499788B7688}" name="Column20"/>
-    <tableColumn id="21" xr3:uid="{E9D65465-0B7C-432B-8822-40DF6D5108A1}" name="Column21"/>
-    <tableColumn id="22" xr3:uid="{A9543AB3-CEC2-47DB-BC9B-8C792121370D}" name="Column22"/>
-    <tableColumn id="23" xr3:uid="{40C34525-DAF1-4403-B9CA-899BFDECF682}" name="Column23"/>
-    <tableColumn id="24" xr3:uid="{3DE864EF-E1C1-4B12-8AD8-346BC3A373C1}" name="Column24"/>
-    <tableColumn id="25" xr3:uid="{747980DC-E42E-44E1-9B70-8258EC82BD66}" name="Column25"/>
-    <tableColumn id="26" xr3:uid="{F263C038-D010-4C67-B728-8B865F102D20}" name="Column26"/>
-    <tableColumn id="27" xr3:uid="{C8EAEC8E-8B40-45FF-9A78-261D8775CBB8}" name="Column27"/>
-    <tableColumn id="28" xr3:uid="{F8A25DE8-0FAA-4ED9-9A63-5F9028249D34}" name="Column28"/>
-    <tableColumn id="29" xr3:uid="{A54F4C28-045D-40E2-BD21-362FEA2D9D2F}" name="Column29"/>
-    <tableColumn id="30" xr3:uid="{4C6F41DC-4D65-4B0A-9002-ADC0A01D486F}" name="Column30"/>
-    <tableColumn id="31" xr3:uid="{B8C0D469-9D7E-4C98-A293-2A1416F0947E}" name="Column31"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="14" name="Column14"/>
+    <tableColumn id="15" name="Column15"/>
+    <tableColumn id="16" name="Column16"/>
+    <tableColumn id="17" name="Column17"/>
+    <tableColumn id="18" name="Column18"/>
+    <tableColumn id="19" name="Column19"/>
+    <tableColumn id="20" name="Column20"/>
+    <tableColumn id="21" name="Column21"/>
+    <tableColumn id="22" name="Column22"/>
+    <tableColumn id="23" name="Column23"/>
+    <tableColumn id="24" name="Column24"/>
+    <tableColumn id="25" name="Column25"/>
+    <tableColumn id="26" name="Column26"/>
+    <tableColumn id="27" name="Column27"/>
+    <tableColumn id="28" name="Column28"/>
+    <tableColumn id="29" name="Column29"/>
+    <tableColumn id="30" name="Column30"/>
+    <tableColumn id="31" name="Column31"/>
   </tableColumns>
   <tableStyleInfo name="フォームの回答 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1843,15 +1972,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2448,15 +2577,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731860F3-5844-45F0-B2E5-A0FFD60403CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" activeCellId="1" sqref="A6:XFD6 A10:XFD10"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="135.28515625" customWidth="1"/>
     <col min="24" max="24" width="25.42578125" customWidth="1"/>
   </cols>
@@ -2550,19 +2680,19 @@
         <v>7</v>
       </c>
       <c r="I2" s="30">
-        <f>(B2-$F2)*10/$H2</f>
-        <v>0</v>
+        <f t="shared" ref="I2:I5" si="0">(B2-$F2)*9/$H2 + 1</f>
+        <v>1</v>
       </c>
       <c r="J2" s="30">
-        <f t="shared" ref="J2:L2" si="0">(C2-$F2)*10/$H2</f>
-        <v>8.5714285714285712</v>
+        <f t="shared" ref="J2:J5" si="1">(C2-$F2)*9/$H2 + 1</f>
+        <v>8.7142857142857153</v>
       </c>
       <c r="K2" s="30">
-        <f t="shared" si="0"/>
-        <v>5.7142857142857144</v>
+        <f t="shared" ref="K2:K5" si="2">(D2-$F2)*9/$H2 + 1</f>
+        <v>6.1428571428571432</v>
       </c>
       <c r="L2" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L2:L5" si="3">(E2-$F2)*9/$H2+1</f>
         <v>10</v>
       </c>
       <c r="M2">
@@ -2622,35 +2752,35 @@
         <v>8</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" ref="F3:F10" si="1">MIN(B3:E3)</f>
+        <f t="shared" ref="F3:F10" si="4">MIN(B3:E3)</f>
         <v>3</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G10" si="2">MAX(B3:E3)</f>
+        <f t="shared" ref="G3:G10" si="5">MAX(B3:E3)</f>
         <v>8</v>
       </c>
       <c r="H3" s="30">
-        <f t="shared" ref="H3:H10" si="3">G3-F3</f>
+        <f t="shared" ref="H3:H10" si="6">G3-F3</f>
         <v>5</v>
       </c>
       <c r="I3" s="30">
-        <f t="shared" ref="I3:I10" si="4">(B3-$F3)*10/$H3</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J3" s="30">
-        <f t="shared" ref="J3:J10" si="5">(C3-$F3)*10/$H3</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K3" s="30">
-        <f t="shared" ref="K3:K10" si="6">(D3-$F3)*10/$H3</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L3" s="30">
-        <f t="shared" ref="L3:L10" si="7">(E3-$F3)*10/$H3</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M10" si="8">Z3</f>
+        <f t="shared" ref="M3:M15" si="7">Z3</f>
         <v>18.5</v>
       </c>
       <c r="N3" s="23" t="s">
@@ -2685,7 +2815,7 @@
       </c>
       <c r="X3" s="23"/>
       <c r="Z3" s="26">
-        <f t="shared" ref="Z3:Z10" si="9">T3+(5-U3)+V3*2+W3/2</f>
+        <f t="shared" ref="Z3:Z15" si="8">T3+(5-U3)+V3*2+W3/2</f>
         <v>18.5</v>
       </c>
     </row>
@@ -2706,35 +2836,35 @@
         <v>9</v>
       </c>
       <c r="F4" s="30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G4" s="30">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H4" s="30">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="30">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G4" s="30">
+        <v>4</v>
+      </c>
+      <c r="K4" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H4" s="30">
+        <v>4</v>
+      </c>
+      <c r="L4" s="30">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="I4" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="K4" s="30">
-        <f t="shared" si="6"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L4" s="30">
+        <v>10</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="8"/>
         <v>20.5</v>
       </c>
       <c r="N4" s="22" t="s">
@@ -2769,7 +2899,7 @@
       </c>
       <c r="X4" s="22"/>
       <c r="Z4" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>20.5</v>
       </c>
     </row>
@@ -2790,35 +2920,35 @@
         <v>7</v>
       </c>
       <c r="F5" s="30">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="30">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="H5" s="30">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G5" s="30">
+        <v>7</v>
+      </c>
+      <c r="K5" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H5" s="30">
+        <v>1</v>
+      </c>
+      <c r="L5" s="30">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="I5" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
-        <f t="shared" si="5"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="K5" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="30">
+        <v>10</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="N5" s="22" t="s">
@@ -2853,7 +2983,7 @@
       </c>
       <c r="X5" s="22"/>
       <c r="Z5" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -2874,35 +3004,35 @@
         <v>10</v>
       </c>
       <c r="F6" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G6" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="H6" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I6" s="30">
-        <f t="shared" si="4"/>
+        <f>(B6-$F6)*9/$H6 + 1</f>
         <v>10</v>
       </c>
       <c r="J6" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>(C6-$F6)*9/$H6 + 1</f>
+        <v>1</v>
       </c>
       <c r="K6" s="30">
-        <f t="shared" si="6"/>
-        <v>6.666666666666667</v>
+        <f>(D6-$F6)*9/$H6 + 1</f>
+        <v>7</v>
       </c>
       <c r="L6" s="30">
+        <f>(E6-$F6)*9/$H6+1</f>
+        <v>10</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="8"/>
         <v>15.5</v>
       </c>
       <c r="N6" s="23" t="s">
@@ -2937,7 +3067,7 @@
       </c>
       <c r="X6" s="23"/>
       <c r="Z6" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>15.5</v>
       </c>
     </row>
@@ -2958,35 +3088,35 @@
         <v>10</v>
       </c>
       <c r="F7" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G7" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="H7" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I7" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="I7:I15" si="9">(B7-$F7)*9/$H7 + 1</f>
+        <v>1</v>
       </c>
       <c r="J7" s="30">
-        <f t="shared" si="5"/>
-        <v>5.7142857142857144</v>
+        <f t="shared" ref="J7:J15" si="10">(C7-$F7)*9/$H7 + 1</f>
+        <v>6.1428571428571432</v>
       </c>
       <c r="K7" s="30">
-        <f t="shared" si="6"/>
-        <v>8.5714285714285712</v>
+        <f t="shared" ref="K7:K15" si="11">(D7-$F7)*9/$H7 + 1</f>
+        <v>8.7142857142857153</v>
       </c>
       <c r="L7" s="30">
+        <f t="shared" ref="L7:L15" si="12">(E7-$F7)*9/$H7+1</f>
+        <v>10</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="8"/>
         <v>15.5</v>
       </c>
       <c r="N7" s="22" t="s">
@@ -3021,7 +3151,7 @@
       </c>
       <c r="X7" s="22"/>
       <c r="Z7" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>15.5</v>
       </c>
     </row>
@@ -3042,35 +3172,35 @@
         <v>10</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G8" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="H8" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="J8" s="30">
-        <f t="shared" si="5"/>
-        <v>6.666666666666667</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="K8" s="30">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="11"/>
+        <v>2.5</v>
       </c>
       <c r="L8" s="30">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="N8" s="23" t="s">
@@ -3105,7 +3235,7 @@
       </c>
       <c r="X8" s="23"/>
       <c r="Z8" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
     </row>
@@ -3126,35 +3256,35 @@
         <v>4</v>
       </c>
       <c r="F9" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G9" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="H9" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I9" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="J9" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="K9" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="L9" s="30">
+        <f t="shared" si="12"/>
+        <v>5.5</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="N9" s="22" t="s">
@@ -3189,7 +3319,7 @@
       </c>
       <c r="X9" s="22"/>
       <c r="Z9" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -3210,35 +3340,35 @@
         <v>7</v>
       </c>
       <c r="F10" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G10" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="H10" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I10" s="30">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>2.8</v>
       </c>
       <c r="J10" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="K10" s="30">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>2.8</v>
       </c>
       <c r="L10" s="30">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="N10" s="24" t="s">
@@ -3273,7 +3403,7 @@
       </c>
       <c r="X10" s="24"/>
       <c r="Z10" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
@@ -3293,13 +3423,54 @@
       <c r="E11" s="19">
         <v>7</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="F11" s="30">
+        <f t="shared" ref="F11:F15" si="13">MIN(B11:E11)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="30">
+        <f t="shared" ref="G11:G15" si="14">MAX(B11:E11)</f>
+        <v>8</v>
+      </c>
+      <c r="H11" s="30">
+        <f t="shared" ref="H11:H15" si="15">G11-F11</f>
+        <v>7</v>
+      </c>
+      <c r="I11" s="30">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="30">
+        <f t="shared" si="10"/>
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="K11" s="30">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="L11" s="30">
+        <f t="shared" si="12"/>
+        <v>8.7142857142857153</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="T11" s="42">
+        <v>3</v>
+      </c>
+      <c r="U11" s="42">
+        <v>3</v>
+      </c>
+      <c r="V11" s="42">
+        <v>1</v>
+      </c>
+      <c r="W11" s="42">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="26">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
@@ -3317,13 +3488,54 @@
       <c r="E12" s="19">
         <v>10</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="F12" s="30">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="30">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="30">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="K12" s="30">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="L12" s="30">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="T12" s="41">
+        <v>3</v>
+      </c>
+      <c r="U12" s="41">
+        <v>5</v>
+      </c>
+      <c r="V12" s="41">
+        <v>4</v>
+      </c>
+      <c r="W12" s="41">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="26">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
@@ -3341,13 +3553,54 @@
       <c r="E13" s="19">
         <v>9</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="F13" s="30">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="H13" s="30">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="30">
+        <f t="shared" si="10"/>
+        <v>5.5</v>
+      </c>
+      <c r="K13" s="30">
+        <f t="shared" si="11"/>
+        <v>5.5</v>
+      </c>
+      <c r="L13" s="30">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="T13" s="42">
+        <v>4</v>
+      </c>
+      <c r="U13" s="42">
+        <v>2</v>
+      </c>
+      <c r="V13" s="42">
+        <v>4</v>
+      </c>
+      <c r="W13" s="42">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="26">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
@@ -3365,13 +3618,54 @@
       <c r="E14" s="19">
         <v>10</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="F14" s="30">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="30">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="30">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="30">
+        <f t="shared" si="10"/>
+        <v>5.5</v>
+      </c>
+      <c r="K14" s="30">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="30">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="7"/>
+        <v>15.5</v>
+      </c>
+      <c r="T14" s="41">
+        <v>4</v>
+      </c>
+      <c r="U14" s="41">
+        <v>4</v>
+      </c>
+      <c r="V14" s="41">
+        <v>4</v>
+      </c>
+      <c r="W14" s="41">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="26">
+        <f t="shared" si="8"/>
+        <v>15.5</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
@@ -3389,13 +3683,54 @@
       <c r="E15" s="19">
         <v>9</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="F15" s="30">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="H15" s="30">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="30">
+        <f t="shared" si="9"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J15" s="30">
+        <f t="shared" si="10"/>
+        <v>6.4</v>
+      </c>
+      <c r="K15" s="30">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="30">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="7"/>
+        <v>15.5</v>
+      </c>
+      <c r="T15" s="45">
+        <v>4</v>
+      </c>
+      <c r="U15" s="45">
+        <v>3</v>
+      </c>
+      <c r="V15" s="45">
+        <v>4</v>
+      </c>
+      <c r="W15" s="45">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="26">
+        <f t="shared" si="8"/>
+        <v>15.5</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
@@ -3416,10 +3751,22 @@
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="I16" s="30">
+        <f>(I2+I3+I4+I5+I6+I7+I8+I9+I10+I11+I12+I13+I14+I15)/14</f>
+        <v>2.2428571428571429</v>
+      </c>
+      <c r="J16" s="30">
+        <f t="shared" ref="J16:L16" si="16">(J2+J3+J4+J5+J6+J7+J8+J9+J10+J11+J12+J13+J14+J15)/14</f>
+        <v>5.848979591836736</v>
+      </c>
+      <c r="K16" s="30">
+        <f t="shared" si="16"/>
+        <v>5.0897959183673462</v>
+      </c>
+      <c r="L16" s="30">
+        <f t="shared" si="16"/>
+        <v>9.5867346938775508</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
@@ -3464,14 +3811,26 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="I18" s="30">
+        <f>MEDIAN(I2:I3:I4:I5:I6:I7:I8:I9:I10:I11:I12:I13:I14:I15)</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="30">
+        <f>MEDIAN(J2:J3:J4:J5:J6:J7:J8:J9:J10:J11:J12:J13:J14:J15)</f>
+        <v>6.2714285714285722</v>
+      </c>
+      <c r="K18" s="30">
+        <f>MEDIAN(K2:K3:K4:K5:K6:K7:K8:K9:K10:K11:K12:K13:K14:K15)</f>
+        <v>5.05</v>
+      </c>
+      <c r="L18" s="30">
+        <f>MEDIAN(L2:L3:L4:L5:L6:L7:L8:L9:L10:L11:L12:L13:L14:L15)</f>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
-  <conditionalFormatting sqref="B2:L2 F3:L10">
+  <conditionalFormatting sqref="B2:H2 F6:L15 F3:H5 I2:L5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -3483,7 +3842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:L15 B3:E10">
+  <conditionalFormatting sqref="B3:E15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -3508,26 +3867,27 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="X2:X10" xr:uid="{35B912C1-27E9-4BB4-A235-33B1320890F1}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="X2:X10">
       <formula1>AND(ISNUMBER(X2),(NOT(OR(NOT(ISERROR(DATEVALUE(X2))), AND(ISNUMBER(X2), LEFT(CELL("format", X2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4590,6 +4950,481 @@
         <v>190</v>
       </c>
     </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43">
+        <v>45671.52712042824</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="42">
+        <v>36.6</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="42">
+        <v>3</v>
+      </c>
+      <c r="I13" s="42">
+        <v>3</v>
+      </c>
+      <c r="J13" s="42">
+        <v>1</v>
+      </c>
+      <c r="K13" s="42">
+        <v>2</v>
+      </c>
+      <c r="L13" s="42">
+        <v>1</v>
+      </c>
+      <c r="M13" s="42">
+        <v>1</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>6</v>
+      </c>
+      <c r="R13" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="42">
+        <v>4</v>
+      </c>
+      <c r="U13" s="42">
+        <v>7</v>
+      </c>
+      <c r="V13" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" s="42">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="42">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD13" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE13" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44">
+        <v>45671.527323414353</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="41">
+        <v>36.4</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="41">
+        <v>3</v>
+      </c>
+      <c r="I14" s="41">
+        <v>5</v>
+      </c>
+      <c r="J14" s="41">
+        <v>4</v>
+      </c>
+      <c r="K14" s="41">
+        <v>4</v>
+      </c>
+      <c r="L14" s="41">
+        <v>1</v>
+      </c>
+      <c r="M14" s="41">
+        <v>7</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="41">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="41">
+        <v>8</v>
+      </c>
+      <c r="R14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="41">
+        <v>4</v>
+      </c>
+      <c r="U14" s="41">
+        <v>10</v>
+      </c>
+      <c r="V14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="41">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="41">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC14" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE14" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43">
+        <v>45671.52745094907</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="42">
+        <v>4</v>
+      </c>
+      <c r="I15" s="42">
+        <v>2</v>
+      </c>
+      <c r="J15" s="42">
+        <v>4</v>
+      </c>
+      <c r="K15" s="42">
+        <v>4</v>
+      </c>
+      <c r="L15" s="42">
+        <v>1</v>
+      </c>
+      <c r="M15" s="42">
+        <v>7</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>8</v>
+      </c>
+      <c r="R15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="42">
+        <v>4</v>
+      </c>
+      <c r="U15" s="42">
+        <v>9</v>
+      </c>
+      <c r="V15" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="W15" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="X15" s="42">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="42">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA15" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB15" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC15" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD15" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="44">
+        <v>45671.527452592592</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="41">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="41">
+        <v>4</v>
+      </c>
+      <c r="I16" s="41">
+        <v>4</v>
+      </c>
+      <c r="J16" s="41">
+        <v>4</v>
+      </c>
+      <c r="K16" s="41">
+        <v>5</v>
+      </c>
+      <c r="L16" s="41">
+        <v>1</v>
+      </c>
+      <c r="M16" s="41">
+        <v>6</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="41">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="41">
+        <v>7</v>
+      </c>
+      <c r="R16" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16" s="41">
+        <v>4</v>
+      </c>
+      <c r="U16" s="41">
+        <v>10</v>
+      </c>
+      <c r="V16" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="W16" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16" s="41">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="41">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA16" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB16" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC16" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE16" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49">
+        <v>45671.536417696756</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="45">
+        <v>36.5</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="45">
+        <v>4</v>
+      </c>
+      <c r="I17" s="45">
+        <v>3</v>
+      </c>
+      <c r="J17" s="45">
+        <v>4</v>
+      </c>
+      <c r="K17" s="45">
+        <v>3</v>
+      </c>
+      <c r="L17" s="45">
+        <v>1</v>
+      </c>
+      <c r="M17" s="45">
+        <v>6</v>
+      </c>
+      <c r="N17" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="45">
+        <v>7</v>
+      </c>
+      <c r="R17" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" s="45">
+        <v>4</v>
+      </c>
+      <c r="U17" s="45">
+        <v>9</v>
+      </c>
+      <c r="V17" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="W17" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="X17" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="45">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA17" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB17" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC17" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD17" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE17" s="48" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="E2:E11">
@@ -4601,7 +5436,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="L2:L11" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="L2:L11">
       <formula1>AND(ISNUMBER(L2),(NOT(OR(NOT(ISERROR(DATEVALUE(L2))), AND(ISNUMBER(L2), LEFT(CELL("format", L2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -4613,17 +5448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245BCF6F-75C5-4EC4-9084-19B4ADAAF292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="P2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4777,7 +5609,7 @@
         <v>7</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="O2" s="31" t="s">
         <v>85</v>
@@ -4788,8 +5620,8 @@
       <c r="Q2" s="5">
         <v>9</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>86</v>
+      <c r="R2" s="39" t="s">
+        <v>237</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>87</v>
@@ -4800,8 +5632,8 @@
       <c r="U2" s="5">
         <v>10</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>88</v>
+      <c r="V2" s="37" t="s">
+        <v>231</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>89</v>
@@ -4871,8 +5703,8 @@
       <c r="M3" s="8">
         <v>8</v>
       </c>
-      <c r="N3" s="32" t="s">
-        <v>95</v>
+      <c r="N3" s="52" t="s">
+        <v>231</v>
       </c>
       <c r="O3" s="32" t="s">
         <v>96</v>
@@ -4895,8 +5727,8 @@
       <c r="U3" s="8">
         <v>7</v>
       </c>
-      <c r="V3" s="8" t="s">
-        <v>99</v>
+      <c r="V3" s="50" t="s">
+        <v>229</v>
       </c>
       <c r="W3" s="8" t="s">
         <v>100</v>
@@ -4907,8 +5739,8 @@
       <c r="Y3" s="8">
         <v>5</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>101</v>
+      <c r="Z3" s="50" t="s">
+        <v>226</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>102</v>
@@ -4966,8 +5798,8 @@
       <c r="M4" s="5">
         <v>6</v>
       </c>
-      <c r="N4" s="31" t="s">
-        <v>107</v>
+      <c r="N4" s="53" t="s">
+        <v>240</v>
       </c>
       <c r="O4" s="31" t="s">
         <v>108</v>
@@ -4978,8 +5810,8 @@
       <c r="Q4" s="5">
         <v>9</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>109</v>
+      <c r="R4" s="39" t="s">
+        <v>226</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>110</v>
@@ -4990,8 +5822,8 @@
       <c r="U4" s="5">
         <v>7</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>111</v>
+      <c r="V4" s="37" t="s">
+        <v>230</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>112</v>
@@ -5002,8 +5834,8 @@
       <c r="Y4" s="5">
         <v>7</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>113</v>
+      <c r="Z4" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="AA4" s="5" t="s">
         <v>114</v>
@@ -5021,674 +5853,1060 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>45665.430511342594</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45666.554572465277</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>4</v>
+      </c>
+      <c r="R5" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T5" s="5">
+        <v>2</v>
+      </c>
+      <c r="U5" s="5">
+        <v>6</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X5" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD5" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>45666.627789085644</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="8">
-        <v>36</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="E6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="8">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3</v>
+      </c>
+      <c r="I6" s="8">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8">
+        <v>5</v>
+      </c>
+      <c r="K6" s="8">
+        <v>5</v>
+      </c>
+      <c r="L6" s="8">
+        <v>4</v>
+      </c>
+      <c r="M6" s="8">
+        <v>10</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="T6" s="8">
+        <v>3</v>
+      </c>
+      <c r="U6" s="8">
+        <v>7</v>
+      </c>
+      <c r="V6" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45666.675356979162</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="8">
-        <v>4</v>
-      </c>
-      <c r="I5" s="8">
-        <v>2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>3</v>
-      </c>
-      <c r="K5" s="8">
-        <v>3</v>
-      </c>
-      <c r="L5" s="8">
-        <v>4</v>
-      </c>
-      <c r="M5" s="8">
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5">
+        <v>7</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>10</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="T7" s="5">
+        <v>3</v>
+      </c>
+      <c r="U7" s="5">
+        <v>9</v>
+      </c>
+      <c r="V7" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="X7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE7" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>45666.883787870371</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="8">
+        <v>3</v>
+      </c>
+      <c r="K8" s="8">
         <v>5</v>
       </c>
-      <c r="N5" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="P5" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="8">
+      <c r="L8" s="8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8">
+        <v>8</v>
+      </c>
+      <c r="N8" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="P8" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="8">
         <v>5</v>
       </c>
-      <c r="R5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" s="8">
-        <v>4</v>
-      </c>
-      <c r="U5" s="8">
-        <v>5</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="X5" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB5" s="8" t="s">
+      <c r="R8" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="T8" s="8">
+        <v>4</v>
+      </c>
+      <c r="U8" s="8">
+        <v>10</v>
+      </c>
+      <c r="V8" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="X8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" s="8" t="s">
+      <c r="AC8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AD5" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>45666.554572465277</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>5</v>
-      </c>
-      <c r="J6" s="5">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5">
-        <v>2</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
-        <v>4</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="P6" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>4</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T6" s="5">
-        <v>2</v>
-      </c>
-      <c r="U6" s="5">
-        <v>6</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X6" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD6" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>45666.627789085644</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="8">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="8">
-        <v>3</v>
-      </c>
-      <c r="I7" s="8">
-        <v>5</v>
-      </c>
-      <c r="J7" s="8">
-        <v>5</v>
-      </c>
-      <c r="K7" s="8">
-        <v>5</v>
-      </c>
-      <c r="L7" s="8">
-        <v>4</v>
-      </c>
-      <c r="M7" s="8">
-        <v>10</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="P7" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>1</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="T7" s="8">
-        <v>3</v>
-      </c>
-      <c r="U7" s="8">
-        <v>7</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="X7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD7" s="36" t="s">
+      <c r="AD8" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="AE7" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>45666.675356979162</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="5">
-        <v>3</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="5">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5">
-        <v>3</v>
-      </c>
-      <c r="L8" s="5">
-        <v>2</v>
-      </c>
-      <c r="M8" s="5">
-        <v>7</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="P8" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>10</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="T8" s="5">
-        <v>3</v>
-      </c>
-      <c r="U8" s="5">
-        <v>9</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="X8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD8" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE8" s="35" t="s">
-        <v>224</v>
+      <c r="AE8" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>45666.883787870371</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="4">
+        <v>45667.867273032403</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="5">
+        <v>36.5</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>7</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="T9" s="5">
+        <v>3</v>
+      </c>
+      <c r="U9" s="5">
+        <v>7</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="X9" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD9" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>45670.00666561343</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="14">
+        <v>36.5</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2</v>
+      </c>
+      <c r="I10" s="14">
+        <v>4</v>
+      </c>
+      <c r="J10" s="14">
+        <v>4</v>
+      </c>
+      <c r="K10" s="14">
+        <v>4</v>
+      </c>
+      <c r="L10" s="14">
+        <v>4</v>
+      </c>
+      <c r="M10" s="14">
+        <v>7</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>3</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="T10" s="14">
+        <v>2</v>
+      </c>
+      <c r="U10" s="14">
+        <v>2</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="X10" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD10" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE10" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43">
+        <v>45671.52712042824</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="42">
+        <v>36.6</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="42">
+        <v>3</v>
+      </c>
+      <c r="I12" s="42">
+        <v>3</v>
+      </c>
+      <c r="J12" s="42">
+        <v>1</v>
+      </c>
+      <c r="K12" s="42">
+        <v>2</v>
+      </c>
+      <c r="L12" s="42">
+        <v>1</v>
+      </c>
+      <c r="M12" s="42">
+        <v>1</v>
+      </c>
+      <c r="N12" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="42">
+        <v>6</v>
+      </c>
+      <c r="R12" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="42">
+        <v>4</v>
+      </c>
+      <c r="U12" s="42">
+        <v>7</v>
+      </c>
+      <c r="V12" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12" s="42">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="42">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC12" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD12" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE12" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="44">
+        <v>45671.527323414353</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="41">
+        <v>36.4</v>
+      </c>
+      <c r="G13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="8">
-        <v>3</v>
-      </c>
-      <c r="I9" s="8">
-        <v>4</v>
-      </c>
-      <c r="J9" s="8">
-        <v>3</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="H13" s="41">
+        <v>3</v>
+      </c>
+      <c r="I13" s="41">
         <v>5</v>
       </c>
-      <c r="L9" s="8">
-        <v>2</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="J13" s="41">
+        <v>4</v>
+      </c>
+      <c r="K13" s="41">
+        <v>4</v>
+      </c>
+      <c r="L13" s="41">
+        <v>1</v>
+      </c>
+      <c r="M13" s="41">
+        <v>7</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="41">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="41">
         <v>8</v>
       </c>
-      <c r="N9" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O9" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="P9" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="8">
+      <c r="R13" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="41">
+        <v>4</v>
+      </c>
+      <c r="U13" s="41">
+        <v>10</v>
+      </c>
+      <c r="V13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="41">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="41">
+        <v>9</v>
+      </c>
+      <c r="Z13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC13" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD13" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43">
+        <v>45671.52745094907</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="42">
+        <v>4</v>
+      </c>
+      <c r="I14" s="42">
+        <v>2</v>
+      </c>
+      <c r="J14" s="42">
+        <v>4</v>
+      </c>
+      <c r="K14" s="42">
+        <v>4</v>
+      </c>
+      <c r="L14" s="42">
+        <v>1</v>
+      </c>
+      <c r="M14" s="42">
+        <v>7</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>8</v>
+      </c>
+      <c r="R14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="42">
+        <v>4</v>
+      </c>
+      <c r="U14" s="42">
+        <v>9</v>
+      </c>
+      <c r="V14" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="W14" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="X14" s="42">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="42">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA14" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB14" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC14" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="44">
+        <v>45671.527452592592</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="41">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="41">
+        <v>4</v>
+      </c>
+      <c r="I15" s="41">
+        <v>4</v>
+      </c>
+      <c r="J15" s="41">
+        <v>4</v>
+      </c>
+      <c r="K15" s="41">
         <v>5</v>
       </c>
-      <c r="R9" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="T9" s="8">
-        <v>4</v>
-      </c>
-      <c r="U9" s="8">
+      <c r="L15" s="41">
+        <v>1</v>
+      </c>
+      <c r="M15" s="41">
+        <v>6</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="41">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="41">
+        <v>7</v>
+      </c>
+      <c r="R15" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="S15" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" s="41">
+        <v>4</v>
+      </c>
+      <c r="U15" s="41">
         <v>10</v>
       </c>
-      <c r="V9" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="X9" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB9" s="8" t="s">
+      <c r="V15" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="X15" s="41">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="41">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA15" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AC9" s="8" t="s">
+      <c r="AC15" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD15" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE15" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49">
+        <v>45671.536417696756</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="45">
+        <v>36.5</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="45">
+        <v>4</v>
+      </c>
+      <c r="I16" s="45">
+        <v>3</v>
+      </c>
+      <c r="J16" s="45">
+        <v>4</v>
+      </c>
+      <c r="K16" s="45">
+        <v>3</v>
+      </c>
+      <c r="L16" s="45">
+        <v>1</v>
+      </c>
+      <c r="M16" s="45">
+        <v>6</v>
+      </c>
+      <c r="N16" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="45">
+        <v>7</v>
+      </c>
+      <c r="R16" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" s="45">
+        <v>4</v>
+      </c>
+      <c r="U16" s="45">
+        <v>9</v>
+      </c>
+      <c r="V16" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="X16" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="45">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA16" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB16" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC16" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="AD9" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE9" s="9" t="s">
-        <v>169</v>
+      <c r="AD16" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE16" s="48" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>45667.867273032403</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="5">
-        <v>36.5</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="5">
-        <v>3</v>
-      </c>
-      <c r="I10" s="5">
-        <v>3</v>
-      </c>
-      <c r="J10" s="5">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5">
-        <v>2</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="P10" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>7</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="T10" s="5">
-        <v>3</v>
-      </c>
-      <c r="U10" s="5">
-        <v>7</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="X10" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD10" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>45670.00666561343</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="14">
-        <v>36.5</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="14">
-        <v>2</v>
-      </c>
-      <c r="I11" s="14">
-        <v>4</v>
-      </c>
-      <c r="J11" s="14">
-        <v>4</v>
-      </c>
-      <c r="K11" s="14">
-        <v>4</v>
-      </c>
-      <c r="L11" s="14">
-        <v>4</v>
-      </c>
-      <c r="M11" s="14">
-        <v>7</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="P11" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>3</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="T11" s="14">
-        <v>2</v>
-      </c>
-      <c r="U11" s="14">
-        <v>2</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="X11" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="14">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA11" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD11" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE11" s="15" t="s">
-        <v>190</v>
+    <row r="18" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <f>(IF(ISNUMBER(SEARCH("モーション",N2:N10)),5,0))+SUM(IF(ISNUMBER(SEARCH("モーション",R2:R10)),5,0))+SUM(IF(ISNUMBER(SEARCH("モーション,",V2:V10)),5,0))+SUM(IF(ISNUMBER(SEARCH("モーション,",Z2:Z10)),5,0))+SUM(IF(ISNUMBER(SEARCH("モーション,",AE2:AE10)),5,0))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
-  <conditionalFormatting sqref="E2:E11">
+  <conditionalFormatting sqref="E2:E10">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$AB2="右の画像"</formula>
     </cfRule>
@@ -5697,7 +6915,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="L2:L11" xr:uid="{6D4AA96C-3009-46E5-A387-6F539EF52FE0}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="L2:L10">
       <formula1>AND(ISNUMBER(L2),(NOT(OR(NOT(ISERROR(DATEVALUE(L2))), AND(ISNUMBER(L2), LEFT(CELL("format", L2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>

--- a/論文関係/アンケート.xlsx
+++ b/論文関係/アンケート.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="245">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -964,6 +964,10 @@
     <t>モーション</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -972,7 +976,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1031,6 +1035,14 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1377,7 +1389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1538,6 +1550,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5452,10 +5465,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6898,10 +6911,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q18">
-        <f>(IF(ISNUMBER(SEARCH("モーション",N2:N10)),5,0))+SUM(IF(ISNUMBER(SEARCH("モーション",R2:R10)),5,0))+SUM(IF(ISNUMBER(SEARCH("モーション,",V2:V10)),5,0))+SUM(IF(ISNUMBER(SEARCH("モーション,",Z2:Z10)),5,0))+SUM(IF(ISNUMBER(SEARCH("モーション,",AE2:AE10)),5,0))</f>
-        <v>0</v>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", N2:N10)))*5) + SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", R2:R10)))*5) + SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", V2:V10)))*5) + SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", Z2:Z10)))*5) + SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", AE2:AE10)))*5)</f>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6920,8 +6941,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/論文関係/アンケート.xlsx
+++ b/論文関係/アンケート.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="フォームの回答 1" sheetId="2" r:id="rId3"/>
-    <sheet name="フォームの回答 1 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="フォームの回答 1 (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="フォームの回答 1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="312">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -862,15 +862,11 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>震えている表現</t>
+    <t>環境パーティクル</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>テクスチャ, モーション</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>キャラクターパーティクル, モーション, テクスチャ</t>
+    <t>音</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -878,22 +874,890 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>No</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>モーション</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>キャラクターパーティクル, モーション</t>
+    <t>モーション, キャラクターパーティクル</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>モーション, 環境パーティクル</t>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>環境パーティクル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キャラクターパーティクル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>モーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>フレームレート制限</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>フレームレート制限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キーワード</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>全体出現回数</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シュツゲンカイスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>キャラクターパーティクル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ラスター</t>
+  </si>
+  <si>
+    <t>ラスター</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>全体を通して印象</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>インショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エリア1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エリア2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>エリア</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>エリア</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エリア1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>エリア</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>モーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>環境パーティクル</t>
+    </r>
     <rPh sb="7" eb="9">
       <t>カンキョウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>環境パーティクル, 音</t>
+    <t>モーション, 環境パーティクル</t>
+  </si>
+  <si>
+    <t>モーション
+キャラクターパーティクル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>音</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>環境パーティクル</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>環境パーティクル</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モーション</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>表情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モーション</t>
+    </r>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>寒そうには見えない</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ラスター</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>テクスチャ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モーション</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>テクスチャ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モーション</t>
+    </r>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>モーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>フレームレート制限</t>
+    </r>
+  </si>
+  <si>
+    <t>音</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>モーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>環境パーティクル</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>モーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>環境パーティクル</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>キャラクターパーティクル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モーション</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キャラクターパーティクル
+モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>環境パーティクル</t>
+  </si>
+  <si>
+    <t>環境パーティクル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oge</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oge</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>テクスチャ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モーション</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>テクスチャ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モーション</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>キャラクターパーティクル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>テクスチャ</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>キャラクターパーティクル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>テクスチャ</t>
+    </r>
+  </si>
+  <si>
+    <t>複合的に「寒い」を演出されているので</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>環境パーティクル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>カンキョウ</t>
     </rPh>
@@ -903,7 +1767,255 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <r>
+      <t>環境パーティクル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音</t>
+    </r>
+  </si>
+  <si>
+    <t>寒そうだとは感じなかった</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>寒そうだとは感じなかった</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>寒そうでない</t>
+    <rPh sb="0" eb="1">
+      <t>サム</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>テクスチャ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ラスター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ローポリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>環境パーティクル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>環境パーティクル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>"寒そうでない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>サム</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>空欄</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>環境パーティクル</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>環境パーティクル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>音, 環境パーティクル</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キャラクターパーティクル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>表情</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション, パーティクル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>モーション、キャラクターパーティクル</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -914,50 +2026,37 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>テクスチャ</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>環境パーティクル</t>
-    <rPh sb="0" eb="2">
+    <t>モーション, 環境パーティクル</t>
+    <rPh sb="7" eb="9">
       <t>カンキョウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ラスター</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>モーション フレームレート制限</t>
-    <rPh sb="13" eb="15">
-      <t>セイゲン</t>
+    <t>表情, 環境パーティクル</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>モーション, 氷霧</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>音</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>音, 環境パーティクル</t>
-    <rPh sb="0" eb="1">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="4" eb="6">
       <t>カンキョウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>表情, モーション</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジョウ</t>
-    </rPh>
+    <r>
+      <t>モーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -965,7 +2064,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>モーション</t>
+    <t>a</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -976,7 +2075,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1044,6 +2143,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1065,7 +2171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1385,11 +2491,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1544,13 +2665,75 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1706,6 +2889,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Form_Responses14" displayName="Form_Responses14" ref="A1:AE10" headerRowCount="0">
+  <tableColumns count="31">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="14" name="Column14"/>
+    <tableColumn id="15" name="Column15"/>
+    <tableColumn id="16" name="Column16"/>
+    <tableColumn id="17" name="Column17"/>
+    <tableColumn id="18" name="Column18"/>
+    <tableColumn id="19" name="Column19"/>
+    <tableColumn id="20" name="Column20"/>
+    <tableColumn id="21" name="Column21"/>
+    <tableColumn id="22" name="Column22"/>
+    <tableColumn id="23" name="Column23"/>
+    <tableColumn id="24" name="Column24"/>
+    <tableColumn id="25" name="Column25"/>
+    <tableColumn id="26" name="Column26"/>
+    <tableColumn id="27" name="Column27"/>
+    <tableColumn id="28" name="Column28"/>
+    <tableColumn id="29" name="Column29"/>
+    <tableColumn id="30" name="Column30"/>
+    <tableColumn id="31" name="Column31"/>
+  </tableColumns>
+  <tableStyleInfo name="フォームの回答 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AE11" headerRowCount="0">
   <tableColumns count="31">
     <tableColumn id="1" name="Column1"/>
@@ -1746,45 +2968,6 @@
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
     </ext>
   </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Form_Responses14" displayName="Form_Responses14" ref="A1:AE10" headerRowCount="0">
-  <tableColumns count="31">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
-    <tableColumn id="14" name="Column14"/>
-    <tableColumn id="15" name="Column15"/>
-    <tableColumn id="16" name="Column16"/>
-    <tableColumn id="17" name="Column17"/>
-    <tableColumn id="18" name="Column18"/>
-    <tableColumn id="19" name="Column19"/>
-    <tableColumn id="20" name="Column20"/>
-    <tableColumn id="21" name="Column21"/>
-    <tableColumn id="22" name="Column22"/>
-    <tableColumn id="23" name="Column23"/>
-    <tableColumn id="24" name="Column24"/>
-    <tableColumn id="25" name="Column25"/>
-    <tableColumn id="26" name="Column26"/>
-    <tableColumn id="27" name="Column27"/>
-    <tableColumn id="28" name="Column28"/>
-    <tableColumn id="29" name="Column29"/>
-    <tableColumn id="30" name="Column30"/>
-    <tableColumn id="31" name="Column31"/>
-  </tableColumns>
-  <tableStyleInfo name="フォームの回答 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2591,15 +3774,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" customWidth="1"/>
     <col min="17" max="17" width="135.28515625" customWidth="1"/>
     <col min="24" max="24" width="25.42578125" customWidth="1"/>
   </cols>
@@ -3781,7 +4972,7 @@
         <v>9.5867346938775508</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>210</v>
       </c>
@@ -3805,7 +4996,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>211</v>
       </c>
@@ -3839,6 +5030,860 @@
       <c r="L18" s="30">
         <f>MEDIAN(L2:L3:L4:L5:L6:L7:L8:L9:L10:L11:L12:L13:L14:L15)</f>
         <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="K20" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="L20" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="M20" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="N20" s="53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="69" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="70">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", J21:J29))))</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="70">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", K21:K29))))</f>
+        <v>6</v>
+      </c>
+      <c r="D21" s="70">
+        <f t="shared" ref="D21:F21" si="17">SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", L21:L29))))</f>
+        <v>6</v>
+      </c>
+      <c r="E21" s="70">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F21" s="70">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="70">
+        <f>B21+C21+D21+E21+F21</f>
+        <v>19</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="L21" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="N21" s="59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="70">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", J21:J29))))</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="70">
+        <f t="shared" ref="C22:F22" si="18">SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", K21:K29))))</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="70">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="70">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="70">
+        <f t="shared" ref="G22:G29" si="19">B22+C22+D22+E22+F22</f>
+        <v>9</v>
+      </c>
+      <c r="J22" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="K22" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="M22" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="N22" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="70">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("音", J21:J29))))</f>
+        <v>4</v>
+      </c>
+      <c r="C23" s="70">
+        <f t="shared" ref="C23:F23" si="20">SUMPRODUCT(--(ISNUMBER(SEARCH("音", K21:K29))))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="70">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="70">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="70">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="70">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="M23" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="N23" s="65" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="70">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", J21:J29))))</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="70">
+        <f t="shared" ref="C24:F24" si="21">SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", K21:K29))))</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="70">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="E24" s="70">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="F24" s="70">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="70">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="N24" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="70">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", J21:J29))))</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="70">
+        <f t="shared" ref="C25:F25" si="22">SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", K21:K29))))</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="70">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="70">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="70">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="70">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="J25" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="K25" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="L25" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="M25" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="N25" s="65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="70">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("表情", J21:J29))))</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="70">
+        <f t="shared" ref="C26:F26" si="23">SUMPRODUCT(--(ISNUMBER(SEARCH("表情", K21:K29))))</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="70">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="70">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="70">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="70">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="K26" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="M26" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="N26" s="58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" s="70">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", J21:J29))))</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="70">
+        <f t="shared" ref="C27:F27" si="24">SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", K21:K29))))</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="70">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="70">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="70">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="70">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="K27" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="M27" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="N27" s="58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="70">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", J21:J29))))</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="70">
+        <f t="shared" ref="C28:F28" si="25">SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", K21:K29))))</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="70">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="70">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="70">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="70">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="K28" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="M28" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="N28" s="65" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" s="70">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", J21:J29))))</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="70">
+        <f t="shared" ref="C29:F29" si="26">SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", K21:K29))))</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="70">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="70">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="70">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="70">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="L29" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="M29" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="N29" s="59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="70">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", J22:J30))))</f>
+        <v>2</v>
+      </c>
+      <c r="C30" s="70">
+        <f t="shared" ref="C30:G30" si="27">SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", K22:K30))))</f>
+        <v>2</v>
+      </c>
+      <c r="D30" s="70">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="70">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="F30" s="70">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="70">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="E32" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="F32" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" s="69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="75">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", J33:J37))))</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="75">
+        <f t="shared" ref="C33:F33" si="28">SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", K33:K37))))</f>
+        <v>3</v>
+      </c>
+      <c r="D33" s="75">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="E33" s="75">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="F33" s="75">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="G33" s="75">
+        <f>B33+C33+D33+E33+F33</f>
+        <v>14</v>
+      </c>
+      <c r="J33" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="N33" s="59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" s="75">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", J33:J37))))</f>
+        <v>4</v>
+      </c>
+      <c r="C34" s="75">
+        <f t="shared" ref="C34:E34" si="29">SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", K33:K37))))</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="75">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="75">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="75">
+        <f t="shared" ref="F34" si="30">SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", N33:N41))))</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="75">
+        <f t="shared" ref="G34:G41" si="31">B34+C34+D34+E34+F34</f>
+        <v>8</v>
+      </c>
+      <c r="J34" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="K34" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="L34" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="N34" s="59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="75">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("音", J33:J37))))</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="75">
+        <f t="shared" ref="C35:E35" si="32">SUMPRODUCT(--(ISNUMBER(SEARCH("音", K33:K37))))</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="75">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="75">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="75">
+        <f t="shared" ref="F35" si="33">SUMPRODUCT(--(ISNUMBER(SEARCH("音", N33:N41))))</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="75">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="K35" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="L35" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="M35" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="N35" s="59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" s="75">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", J33:J37))))</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="75">
+        <f t="shared" ref="C36:E36" si="34">SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", K33:K37))))</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="75">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="75">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="75">
+        <f t="shared" ref="F36" si="35">SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", N33:N41))))</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="75">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="M36" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="N36" s="59" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="75">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", J33:J37))))</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="75">
+        <f t="shared" ref="C37:E37" si="36">SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", K33:K37))))</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="75">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="75">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="75">
+        <f t="shared" ref="F37" si="37">SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", N33:N41))))</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="75">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="J37" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="M37" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="N37" s="59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" s="75">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("表情", J33:J37))))</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="75">
+        <f t="shared" ref="C38:E38" si="38">SUMPRODUCT(--(ISNUMBER(SEARCH("表情", K33:K37))))</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="75">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="75">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="75">
+        <f t="shared" ref="F38" si="39">SUMPRODUCT(--(ISNUMBER(SEARCH("表情", N33:N41))))</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="75">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="I38" s="55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="B39" s="75">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", J33:J37))))</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="75">
+        <f t="shared" ref="C39:E39" si="40">SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", K33:K37))))</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="75">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="75">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="75">
+        <f t="shared" ref="F39" si="41">SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", N33:N41))))</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="75">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="75">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", J33:J37))))</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="75">
+        <f t="shared" ref="C40:E40" si="42">SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", K33:K37))))</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="75">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="75">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="75">
+        <f t="shared" ref="F40" si="43">SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", N33:N41))))</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="75">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" s="75">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", J33:J37))))</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="75">
+        <f t="shared" ref="C41:E41" si="44">SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", K33:K37))))</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="75">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="75">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="75">
+        <f t="shared" ref="F41" si="45">SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", N33:N41))))</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="75">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" s="70">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", J33:J37))))</f>
+        <v>1</v>
+      </c>
+      <c r="C42" s="70">
+        <f t="shared" ref="C42:F42" si="46">SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", K33:K37))))</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="70">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="70">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="70">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="70">
+        <f t="shared" ref="G42" si="47">SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", O34:O42))))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3894,18 +5939,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13:K17"/>
+    <sheetView topLeftCell="D16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" customWidth="1"/>
@@ -3913,7 +5956,9 @@
     <col min="10" max="10" width="36.42578125" customWidth="1"/>
     <col min="11" max="11" width="28.85546875" customWidth="1"/>
     <col min="12" max="12" width="28.7109375" customWidth="1"/>
-    <col min="13" max="27" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="42.7109375" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+    <col min="15" max="27" width="18.85546875" customWidth="1"/>
     <col min="28" max="30" width="19.140625" customWidth="1"/>
     <col min="31" max="37" width="18.85546875" customWidth="1"/>
   </cols>
@@ -4007,7 +6052,7 @@
         <v>15</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>17</v>
@@ -4054,7 +6099,7 @@
         <v>7</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="O2" s="31" t="s">
         <v>85</v>
@@ -4065,8 +6110,8 @@
       <c r="Q2" s="5">
         <v>9</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>86</v>
+      <c r="R2" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>87</v>
@@ -4077,8 +6122,8 @@
       <c r="U2" s="5">
         <v>10</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>88</v>
+      <c r="V2" s="37" t="s">
+        <v>269</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>89</v>
@@ -4089,8 +6134,8 @@
       <c r="Y2" s="5">
         <v>3</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>90</v>
+      <c r="Z2" s="39" t="s">
+        <v>228</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>91</v>
@@ -4101,11 +6146,11 @@
       <c r="AC2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>93</v>
+      <c r="AD2" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE2" s="35" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -4148,8 +6193,8 @@
       <c r="M3" s="8">
         <v>8</v>
       </c>
-      <c r="N3" s="32" t="s">
-        <v>95</v>
+      <c r="N3" s="54" t="s">
+        <v>249</v>
       </c>
       <c r="O3" s="32" t="s">
         <v>96</v>
@@ -4160,9 +6205,7 @@
       <c r="Q3" s="8">
         <v>3</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="R3" s="8"/>
       <c r="S3" s="8" t="s">
         <v>98</v>
       </c>
@@ -4172,8 +6215,8 @@
       <c r="U3" s="8">
         <v>7</v>
       </c>
-      <c r="V3" s="8" t="s">
-        <v>99</v>
+      <c r="V3" s="50" t="s">
+        <v>257</v>
       </c>
       <c r="W3" s="8" t="s">
         <v>100</v>
@@ -4184,8 +6227,8 @@
       <c r="Y3" s="8">
         <v>5</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>101</v>
+      <c r="Z3" s="50" t="s">
+        <v>278</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>102</v>
@@ -4196,8 +6239,8 @@
       <c r="AC3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="8" t="s">
-        <v>103</v>
+      <c r="AD3" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>104</v>
@@ -4243,8 +6286,8 @@
       <c r="M4" s="5">
         <v>6</v>
       </c>
-      <c r="N4" s="31" t="s">
-        <v>107</v>
+      <c r="N4" s="60" t="s">
+        <v>252</v>
       </c>
       <c r="O4" s="31" t="s">
         <v>108</v>
@@ -4255,8 +6298,8 @@
       <c r="Q4" s="5">
         <v>9</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>109</v>
+      <c r="R4" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>110</v>
@@ -4267,8 +6310,8 @@
       <c r="U4" s="5">
         <v>7</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>111</v>
+      <c r="V4" s="37" t="s">
+        <v>271</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>112</v>
@@ -4279,1576 +6322,8 @@
       <c r="Y4" s="5">
         <v>7</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>45665.430511342594</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="8">
-        <v>36</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="8">
-        <v>4</v>
-      </c>
-      <c r="I5" s="8">
-        <v>2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>3</v>
-      </c>
-      <c r="K5" s="8">
-        <v>3</v>
-      </c>
-      <c r="L5" s="8">
-        <v>4</v>
-      </c>
-      <c r="M5" s="8">
-        <v>5</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="P5" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>5</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" s="8">
-        <v>4</v>
-      </c>
-      <c r="U5" s="8">
-        <v>5</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="X5" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>45666.554572465277</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>5</v>
-      </c>
-      <c r="J6" s="5">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5">
-        <v>2</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
-        <v>4</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="P6" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>4</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T6" s="5">
-        <v>2</v>
-      </c>
-      <c r="U6" s="5">
-        <v>6</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="X6" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>45666.627789085644</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="8">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="8">
-        <v>3</v>
-      </c>
-      <c r="I7" s="8">
-        <v>5</v>
-      </c>
-      <c r="J7" s="8">
-        <v>5</v>
-      </c>
-      <c r="K7" s="8">
-        <v>5</v>
-      </c>
-      <c r="L7" s="8">
-        <v>4</v>
-      </c>
-      <c r="M7" s="8">
-        <v>10</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="P7" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>1</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="T7" s="8">
-        <v>3</v>
-      </c>
-      <c r="U7" s="8">
-        <v>7</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="X7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>45666.675356979162</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="5">
-        <v>3</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="5">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5">
-        <v>3</v>
-      </c>
-      <c r="L8" s="5">
-        <v>2</v>
-      </c>
-      <c r="M8" s="5">
-        <v>7</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="P8" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>10</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="T8" s="5">
-        <v>3</v>
-      </c>
-      <c r="U8" s="5">
-        <v>9</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="X8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>45666.883787870371</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="8">
-        <v>3</v>
-      </c>
-      <c r="I9" s="8">
-        <v>4</v>
-      </c>
-      <c r="J9" s="8">
-        <v>3</v>
-      </c>
-      <c r="K9" s="8">
-        <v>5</v>
-      </c>
-      <c r="L9" s="8">
-        <v>2</v>
-      </c>
-      <c r="M9" s="8">
-        <v>8</v>
-      </c>
-      <c r="N9" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="O9" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="P9" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>5</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="T9" s="8">
-        <v>4</v>
-      </c>
-      <c r="U9" s="8">
-        <v>10</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="X9" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD9" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE9" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>45667.867273032403</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="5">
-        <v>36.5</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="5">
-        <v>3</v>
-      </c>
-      <c r="I10" s="5">
-        <v>3</v>
-      </c>
-      <c r="J10" s="5">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5">
-        <v>2</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="P10" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>7</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="T10" s="5">
-        <v>3</v>
-      </c>
-      <c r="U10" s="5">
-        <v>7</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="X10" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD10" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>45670.00666561343</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="14">
-        <v>36.5</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="14">
-        <v>2</v>
-      </c>
-      <c r="I11" s="14">
-        <v>4</v>
-      </c>
-      <c r="J11" s="14">
-        <v>4</v>
-      </c>
-      <c r="K11" s="14">
-        <v>4</v>
-      </c>
-      <c r="L11" s="14">
-        <v>4</v>
-      </c>
-      <c r="M11" s="14">
-        <v>7</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="P11" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>3</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="T11" s="14">
-        <v>2</v>
-      </c>
-      <c r="U11" s="14">
-        <v>2</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="X11" s="14">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="14">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA11" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD11" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE11" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43">
-        <v>45671.52712042824</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="42">
-        <v>36.6</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="42">
-        <v>3</v>
-      </c>
-      <c r="I13" s="42">
-        <v>3</v>
-      </c>
-      <c r="J13" s="42">
-        <v>1</v>
-      </c>
-      <c r="K13" s="42">
-        <v>2</v>
-      </c>
-      <c r="L13" s="42">
-        <v>1</v>
-      </c>
-      <c r="M13" s="42">
-        <v>1</v>
-      </c>
-      <c r="N13" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="42">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="42">
-        <v>6</v>
-      </c>
-      <c r="R13" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13" s="42">
-        <v>4</v>
-      </c>
-      <c r="U13" s="42">
-        <v>7</v>
-      </c>
-      <c r="V13" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="W13" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="X13" s="42">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="42">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC13" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD13" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE13" s="46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44">
-        <v>45671.527323414353</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="41">
-        <v>36.4</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="41">
-        <v>3</v>
-      </c>
-      <c r="I14" s="41">
-        <v>5</v>
-      </c>
-      <c r="J14" s="41">
-        <v>4</v>
-      </c>
-      <c r="K14" s="41">
-        <v>4</v>
-      </c>
-      <c r="L14" s="41">
-        <v>1</v>
-      </c>
-      <c r="M14" s="41">
-        <v>7</v>
-      </c>
-      <c r="N14" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="41">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="41">
-        <v>8</v>
-      </c>
-      <c r="R14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="41">
-        <v>4</v>
-      </c>
-      <c r="U14" s="41">
-        <v>10</v>
-      </c>
-      <c r="V14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="W14" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" s="41">
-        <v>3</v>
-      </c>
-      <c r="Y14" s="41">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA14" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB14" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC14" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD14" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE14" s="47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43">
-        <v>45671.52745094907</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="42">
-        <v>4</v>
-      </c>
-      <c r="I15" s="42">
-        <v>2</v>
-      </c>
-      <c r="J15" s="42">
-        <v>4</v>
-      </c>
-      <c r="K15" s="42">
-        <v>4</v>
-      </c>
-      <c r="L15" s="42">
-        <v>1</v>
-      </c>
-      <c r="M15" s="42">
-        <v>7</v>
-      </c>
-      <c r="N15" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" s="42">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="42">
-        <v>8</v>
-      </c>
-      <c r="R15" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="T15" s="42">
-        <v>4</v>
-      </c>
-      <c r="U15" s="42">
-        <v>9</v>
-      </c>
-      <c r="V15" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="W15" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="X15" s="42">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="42">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA15" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB15" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC15" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD15" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE15" s="46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44">
-        <v>45671.527452592592</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="41">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="41">
-        <v>4</v>
-      </c>
-      <c r="I16" s="41">
-        <v>4</v>
-      </c>
-      <c r="J16" s="41">
-        <v>4</v>
-      </c>
-      <c r="K16" s="41">
-        <v>5</v>
-      </c>
-      <c r="L16" s="41">
-        <v>1</v>
-      </c>
-      <c r="M16" s="41">
-        <v>6</v>
-      </c>
-      <c r="N16" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" s="41">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="41">
-        <v>7</v>
-      </c>
-      <c r="R16" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="S16" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="T16" s="41">
-        <v>4</v>
-      </c>
-      <c r="U16" s="41">
-        <v>10</v>
-      </c>
-      <c r="V16" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="W16" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="X16" s="41">
-        <v>3</v>
-      </c>
-      <c r="Y16" s="41">
-        <v>4</v>
-      </c>
-      <c r="Z16" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA16" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB16" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC16" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD16" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE16" s="47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49">
-        <v>45671.536417696756</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="45">
-        <v>36.5</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="45">
-        <v>4</v>
-      </c>
-      <c r="I17" s="45">
-        <v>3</v>
-      </c>
-      <c r="J17" s="45">
-        <v>4</v>
-      </c>
-      <c r="K17" s="45">
-        <v>3</v>
-      </c>
-      <c r="L17" s="45">
-        <v>1</v>
-      </c>
-      <c r="M17" s="45">
-        <v>6</v>
-      </c>
-      <c r="N17" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" s="45">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="45">
-        <v>7</v>
-      </c>
-      <c r="R17" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="S17" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="T17" s="45">
-        <v>4</v>
-      </c>
-      <c r="U17" s="45">
-        <v>9</v>
-      </c>
-      <c r="V17" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="W17" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="X17" s="45">
-        <v>3</v>
-      </c>
-      <c r="Y17" s="45">
-        <v>4</v>
-      </c>
-      <c r="Z17" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA17" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB17" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC17" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD17" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE17" s="48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5"/>
-  <conditionalFormatting sqref="E2:E11">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$AB2="右の画像"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$AB2="左の画像"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="L2:L11">
-      <formula1>AND(ISNUMBER(L2),(NOT(OR(NOT(ISERROR(DATEVALUE(L2))), AND(ISNUMBER(L2), LEFT(CELL("format", L2))="D")))))</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AE19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" customWidth="1"/>
-    <col min="13" max="27" width="18.85546875" customWidth="1"/>
-    <col min="28" max="30" width="19.140625" customWidth="1"/>
-    <col min="31" max="37" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>45664.070040613427</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="5">
-        <v>36</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="5">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5">
-        <v>3</v>
-      </c>
-      <c r="J2" s="5">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5">
-        <v>3</v>
-      </c>
-      <c r="M2" s="5">
-        <v>7</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>9</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T2" s="5">
-        <v>4</v>
-      </c>
-      <c r="U2" s="5">
-        <v>10</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD2" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE2" s="35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>45664.128990439815</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="8">
-        <v>37</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="8">
-        <v>4</v>
-      </c>
-      <c r="I3" s="8">
-        <v>2</v>
-      </c>
-      <c r="J3" s="8">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8">
-        <v>3</v>
-      </c>
-      <c r="L3" s="8">
-        <v>4</v>
-      </c>
-      <c r="M3" s="8">
-        <v>8</v>
-      </c>
-      <c r="N3" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="P3" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>3</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="T3" s="8">
-        <v>2</v>
-      </c>
-      <c r="U3" s="8">
-        <v>7</v>
-      </c>
-      <c r="V3" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="X3" s="8">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD3" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>45664.587324293985</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="5">
-        <v>35</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="5">
-        <v>4</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
-        <v>5</v>
-      </c>
-      <c r="K4" s="5">
-        <v>5</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5">
-        <v>6</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="P4" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>9</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="T4" s="5">
-        <v>2</v>
-      </c>
-      <c r="U4" s="5">
-        <v>7</v>
-      </c>
-      <c r="V4" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="X4" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>7</v>
-      </c>
       <c r="Z4" s="37" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="AA4" s="5" t="s">
         <v>114</v>
@@ -5906,8 +6381,8 @@
       <c r="M5" s="5">
         <v>4</v>
       </c>
-      <c r="N5" s="53" t="s">
-        <v>240</v>
+      <c r="N5" s="52" t="s">
+        <v>226</v>
       </c>
       <c r="O5" s="31" t="s">
         <v>126</v>
@@ -5918,8 +6393,8 @@
       <c r="Q5" s="5">
         <v>4</v>
       </c>
-      <c r="R5" s="39" t="s">
-        <v>229</v>
+      <c r="R5" s="37" t="s">
+        <v>263</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>128</v>
@@ -5930,8 +6405,8 @@
       <c r="U5" s="5">
         <v>6</v>
       </c>
-      <c r="V5" s="5" t="s">
-        <v>129</v>
+      <c r="V5" s="37" t="s">
+        <v>272</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>130</v>
@@ -5942,8 +6417,8 @@
       <c r="Y5" s="5">
         <v>7</v>
       </c>
-      <c r="Z5" s="5" t="s">
-        <v>131</v>
+      <c r="Z5" s="39" t="s">
+        <v>282</v>
       </c>
       <c r="AA5" s="5" t="s">
         <v>128</v>
@@ -6001,8 +6476,8 @@
       <c r="M6" s="8">
         <v>10</v>
       </c>
-      <c r="N6" s="52" t="s">
-        <v>241</v>
+      <c r="N6" s="54" t="s">
+        <v>253</v>
       </c>
       <c r="O6" s="32" t="s">
         <v>136</v>
@@ -6013,9 +6488,7 @@
       <c r="Q6" s="8">
         <v>1</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="R6" s="8"/>
       <c r="S6" s="8" t="s">
         <v>138</v>
       </c>
@@ -6026,7 +6499,7 @@
         <v>7</v>
       </c>
       <c r="V6" s="50" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="W6" s="8" t="s">
         <v>140</v>
@@ -6038,7 +6511,7 @@
         <v>10</v>
       </c>
       <c r="Z6" s="50" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>142</v>
@@ -6096,8 +6569,8 @@
       <c r="M7" s="5">
         <v>7</v>
       </c>
-      <c r="N7" s="53" t="s">
-        <v>242</v>
+      <c r="N7" s="60" t="s">
+        <v>255</v>
       </c>
       <c r="O7" s="31" t="s">
         <v>150</v>
@@ -6108,8 +6581,8 @@
       <c r="Q7" s="5">
         <v>10</v>
       </c>
-      <c r="R7" s="39" t="s">
-        <v>235</v>
+      <c r="R7" s="37" t="s">
+        <v>265</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>152</v>
@@ -6121,7 +6594,7 @@
         <v>9</v>
       </c>
       <c r="V7" s="37" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>153</v>
@@ -6133,7 +6606,7 @@
         <v>3</v>
       </c>
       <c r="Z7" s="37" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA7" s="5" t="s">
         <v>155</v>
@@ -6191,8 +6664,8 @@
       <c r="M8" s="8">
         <v>8</v>
       </c>
-      <c r="N8" s="52" t="s">
-        <v>229</v>
+      <c r="N8" s="54" t="s">
+        <v>257</v>
       </c>
       <c r="O8" s="32" t="s">
         <v>161</v>
@@ -6203,8 +6676,8 @@
       <c r="Q8" s="8">
         <v>5</v>
       </c>
-      <c r="R8" s="40" t="s">
-        <v>229</v>
+      <c r="R8" s="50" t="s">
+        <v>266</v>
       </c>
       <c r="S8" s="8" t="s">
         <v>163</v>
@@ -6216,7 +6689,7 @@
         <v>10</v>
       </c>
       <c r="V8" s="50" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="W8" s="8" t="s">
         <v>165</v>
@@ -6228,7 +6701,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="50" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>167</v>
@@ -6286,8 +6759,8 @@
       <c r="M9" s="5">
         <v>1</v>
       </c>
-      <c r="N9" s="31" t="s">
-        <v>171</v>
+      <c r="N9" s="52" t="s">
+        <v>258</v>
       </c>
       <c r="O9" s="31" t="s">
         <v>172</v>
@@ -6298,8 +6771,8 @@
       <c r="Q9" s="5">
         <v>7</v>
       </c>
-      <c r="R9" s="39" t="s">
-        <v>238</v>
+      <c r="R9" s="37" t="s">
+        <v>235</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>174</v>
@@ -6322,8 +6795,8 @@
       <c r="Y9" s="5">
         <v>4</v>
       </c>
-      <c r="Z9" s="5" t="s">
-        <v>176</v>
+      <c r="Z9" s="39" t="s">
+        <v>285</v>
       </c>
       <c r="AA9" s="5" t="s">
         <v>177</v>
@@ -6335,13 +6808,13 @@
         <v>44</v>
       </c>
       <c r="AD9" s="38" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="AE9" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>45670.00666561343</v>
       </c>
@@ -6381,8 +6854,8 @@
       <c r="M10" s="14">
         <v>7</v>
       </c>
-      <c r="N10" s="33" t="s">
-        <v>181</v>
+      <c r="N10" s="62" t="s">
+        <v>259</v>
       </c>
       <c r="O10" s="33" t="s">
         <v>182</v>
@@ -6393,8 +6866,8 @@
       <c r="Q10" s="14">
         <v>3</v>
       </c>
-      <c r="R10" s="14" t="s">
-        <v>183</v>
+      <c r="R10" s="63" t="s">
+        <v>268</v>
       </c>
       <c r="S10" s="14" t="s">
         <v>184</v>
@@ -6418,7 +6891,7 @@
         <v>3</v>
       </c>
       <c r="Z10" s="51" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>188</v>
@@ -6430,7 +6903,7 @@
         <v>44</v>
       </c>
       <c r="AD10" s="51" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="AE10" s="15" t="s">
         <v>190</v>
@@ -6642,8 +7115,8 @@
       <c r="E14" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>48</v>
+      <c r="F14" s="42">
+        <v>36.299999999999997</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>22</v>
@@ -6912,17 +7385,805 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="N18" s="53" t="s">
+        <v>295</v>
+      </c>
       <c r="P18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
-        <v>244</v>
+    <row r="19" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="53" t="s">
+        <v>289</v>
       </c>
       <c r="B19">
-        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", N2:N10)))*5) + SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", R2:R10)))*5) + SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", V2:V10)))*5) + SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", Z2:Z10)))*5) + SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", AE2:AE10)))*5)</f>
-        <v>85</v>
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", J19:J27))))</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", K19:K27))))</f>
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="C19:F19" si="0">SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", L19:L27))))</f>
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <f>B19+C19+D19+E19+F19</f>
+        <v>19</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="K19" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="M19" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="N19" s="59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", J19:J27))))</f>
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:F20" si="1">SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", K19:K27))))</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G27" si="2">B20+C20+D20+E20+F20</f>
+        <v>9</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="N20" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("音", J19:J27))))</f>
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:F21" si="3">SUMPRODUCT(--(ISNUMBER(SEARCH("音", K19:K27))))</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="M21" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="N21" s="65" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", J19:J27))))</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:F22" si="4">SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", K19:K27))))</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="N22" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", J19:J27))))</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:F23" si="5">SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", K19:K27))))</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="M23" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="N23" s="65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("表情", J19:J27))))</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:F24" si="6">SUMPRODUCT(--(ISNUMBER(SEARCH("表情", K19:K27))))</f>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="K24" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="L24" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="M24" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="N24" s="58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="B25">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", J19:J27))))</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:F25" si="7">SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", K19:K27))))</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="M25" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="N25" s="58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", J19:J27))))</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:F26" si="8">SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", K19:K27))))</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="L26" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="M26" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="N26" s="65" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", J19:J27))))</f>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:F27" si="9">SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", K19:K27))))</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="L27" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="M27" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="N27" s="59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", J30:J34))))</f>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:E30" si="10">SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", K30:K34))))</f>
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="C30:F30" si="11">SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", N30:N34))))</f>
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <f>B30+C30+D30+E30+F30</f>
+        <v>14</v>
+      </c>
+      <c r="J30" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="L30" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="M30" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="N30" s="59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", J30:J34))))</f>
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:E31" si="12">SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", K30:K34))))</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31" si="13">SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", N30:N38))))</f>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G38" si="14">B31+C31+D31+E31+F31</f>
+        <v>8</v>
+      </c>
+      <c r="J31" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="M31" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="N31" s="59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("音", J30:J34))))</f>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:E32" si="15">SUMPRODUCT(--(ISNUMBER(SEARCH("音", K30:K34))))</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32" si="16">SUMPRODUCT(--(ISNUMBER(SEARCH("音", N30:N38))))</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="L32" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="M32" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="N32" s="59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", J30:J34))))</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:E33" si="17">SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", K30:K34))))</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33" si="18">SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", N30:N38))))</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="K33" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="L33" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="M33" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="N33" s="59" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", J30:J34))))</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:E34" si="19">SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", K30:K34))))</f>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34" si="20">SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", N30:N38))))</f>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="J34" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="L34" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="M34" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="N34" s="59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("表情", J30:J34))))</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:E35" si="21">SUMPRODUCT(--(ISNUMBER(SEARCH("表情", K30:K34))))</f>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35" si="22">SUMPRODUCT(--(ISNUMBER(SEARCH("表情", N30:N38))))</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="B36">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", J30:J34))))</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:E36" si="23">SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", K30:K34))))</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36" si="24">SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", N30:N38))))</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", J30:J34))))</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:E37" si="25">SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", K30:K34))))</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37" si="26">SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", N30:N38))))</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", J30:J34))))</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:E38" si="27">SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", K30:K34))))</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38" si="28">SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", N30:N38))))</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="73">
+        <f>SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", J30:J34))))</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="73">
+        <f t="shared" ref="C39:F39" si="29">SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", K30:K34))))</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="73">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="73">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="73">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="73">
+        <f t="shared" ref="C39:G39" si="30">SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", O31:O39))))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6948,6 +8209,1577 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AE17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" customWidth="1"/>
+    <col min="13" max="27" width="18.85546875" customWidth="1"/>
+    <col min="28" max="30" width="19.140625" customWidth="1"/>
+    <col min="31" max="37" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45664.070040613427</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="5">
+        <v>36</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="5">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5">
+        <v>7</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>9</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="5">
+        <v>4</v>
+      </c>
+      <c r="U2" s="5">
+        <v>10</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>45664.128990439815</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="8">
+        <v>37</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="8">
+        <v>4</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>5</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3</v>
+      </c>
+      <c r="L3" s="8">
+        <v>4</v>
+      </c>
+      <c r="M3" s="8">
+        <v>8</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>3</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="8">
+        <v>2</v>
+      </c>
+      <c r="U3" s="8">
+        <v>7</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X3" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45664.587324293985</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>6</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>9</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="T4" s="5">
+        <v>2</v>
+      </c>
+      <c r="U4" s="5">
+        <v>7</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="X4" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>45665.430511342594</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="8">
+        <v>36</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="8">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>3</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3</v>
+      </c>
+      <c r="L5" s="8">
+        <v>4</v>
+      </c>
+      <c r="M5" s="8">
+        <v>5</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>5</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T5" s="8">
+        <v>4</v>
+      </c>
+      <c r="U5" s="8">
+        <v>5</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="X5" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45666.554572465277</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>4</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="P6" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>4</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T6" s="5">
+        <v>2</v>
+      </c>
+      <c r="U6" s="5">
+        <v>6</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X6" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>45666.627789085644</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="8">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8">
+        <v>3</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5</v>
+      </c>
+      <c r="J7" s="8">
+        <v>5</v>
+      </c>
+      <c r="K7" s="8">
+        <v>5</v>
+      </c>
+      <c r="L7" s="8">
+        <v>4</v>
+      </c>
+      <c r="M7" s="8">
+        <v>10</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" s="8">
+        <v>3</v>
+      </c>
+      <c r="U7" s="8">
+        <v>7</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="X7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45666.675356979162</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>4</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>7</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>10</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="T8" s="5">
+        <v>3</v>
+      </c>
+      <c r="U8" s="5">
+        <v>9</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="X8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>45666.883787870371</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3</v>
+      </c>
+      <c r="K9" s="8">
+        <v>5</v>
+      </c>
+      <c r="L9" s="8">
+        <v>2</v>
+      </c>
+      <c r="M9" s="8">
+        <v>8</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="P9" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>5</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="T9" s="8">
+        <v>4</v>
+      </c>
+      <c r="U9" s="8">
+        <v>10</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="X9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45667.867273032403</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="5">
+        <v>36.5</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>7</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="T10" s="5">
+        <v>3</v>
+      </c>
+      <c r="U10" s="5">
+        <v>7</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="X10" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>45670.00666561343</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="14">
+        <v>36.5</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="14">
+        <v>2</v>
+      </c>
+      <c r="I11" s="14">
+        <v>4</v>
+      </c>
+      <c r="J11" s="14">
+        <v>4</v>
+      </c>
+      <c r="K11" s="14">
+        <v>4</v>
+      </c>
+      <c r="L11" s="14">
+        <v>4</v>
+      </c>
+      <c r="M11" s="14">
+        <v>7</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>3</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" s="14">
+        <v>2</v>
+      </c>
+      <c r="U11" s="14">
+        <v>2</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="X11" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD11" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE11" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43">
+        <v>45671.52712042824</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="42">
+        <v>36.6</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="42">
+        <v>3</v>
+      </c>
+      <c r="I13" s="42">
+        <v>3</v>
+      </c>
+      <c r="J13" s="42">
+        <v>1</v>
+      </c>
+      <c r="K13" s="42">
+        <v>2</v>
+      </c>
+      <c r="L13" s="42">
+        <v>1</v>
+      </c>
+      <c r="M13" s="42">
+        <v>1</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>6</v>
+      </c>
+      <c r="R13" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="42">
+        <v>4</v>
+      </c>
+      <c r="U13" s="42">
+        <v>7</v>
+      </c>
+      <c r="V13" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" s="42">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="42">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD13" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE13" s="46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44">
+        <v>45671.527323414353</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="41">
+        <v>36.4</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="41">
+        <v>3</v>
+      </c>
+      <c r="I14" s="41">
+        <v>5</v>
+      </c>
+      <c r="J14" s="41">
+        <v>4</v>
+      </c>
+      <c r="K14" s="41">
+        <v>4</v>
+      </c>
+      <c r="L14" s="41">
+        <v>1</v>
+      </c>
+      <c r="M14" s="41">
+        <v>7</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="41">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="41">
+        <v>8</v>
+      </c>
+      <c r="R14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="41">
+        <v>4</v>
+      </c>
+      <c r="U14" s="41">
+        <v>10</v>
+      </c>
+      <c r="V14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="41">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="41">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC14" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE14" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43">
+        <v>45671.52745094907</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="42">
+        <v>4</v>
+      </c>
+      <c r="I15" s="42">
+        <v>2</v>
+      </c>
+      <c r="J15" s="42">
+        <v>4</v>
+      </c>
+      <c r="K15" s="42">
+        <v>4</v>
+      </c>
+      <c r="L15" s="42">
+        <v>1</v>
+      </c>
+      <c r="M15" s="42">
+        <v>7</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="42">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>8</v>
+      </c>
+      <c r="R15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="42">
+        <v>4</v>
+      </c>
+      <c r="U15" s="42">
+        <v>9</v>
+      </c>
+      <c r="V15" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="W15" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="X15" s="42">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="42">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA15" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB15" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC15" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD15" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="44">
+        <v>45671.527452592592</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="41">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="41">
+        <v>4</v>
+      </c>
+      <c r="I16" s="41">
+        <v>4</v>
+      </c>
+      <c r="J16" s="41">
+        <v>4</v>
+      </c>
+      <c r="K16" s="41">
+        <v>5</v>
+      </c>
+      <c r="L16" s="41">
+        <v>1</v>
+      </c>
+      <c r="M16" s="41">
+        <v>6</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="41">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="41">
+        <v>7</v>
+      </c>
+      <c r="R16" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16" s="41">
+        <v>4</v>
+      </c>
+      <c r="U16" s="41">
+        <v>10</v>
+      </c>
+      <c r="V16" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="W16" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16" s="41">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="41">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA16" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB16" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC16" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE16" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49">
+        <v>45671.536417696756</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="45">
+        <v>36.5</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="45">
+        <v>4</v>
+      </c>
+      <c r="I17" s="45">
+        <v>3</v>
+      </c>
+      <c r="J17" s="45">
+        <v>4</v>
+      </c>
+      <c r="K17" s="45">
+        <v>3</v>
+      </c>
+      <c r="L17" s="45">
+        <v>1</v>
+      </c>
+      <c r="M17" s="45">
+        <v>6</v>
+      </c>
+      <c r="N17" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="45">
+        <v>7</v>
+      </c>
+      <c r="R17" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" s="45">
+        <v>4</v>
+      </c>
+      <c r="U17" s="45">
+        <v>9</v>
+      </c>
+      <c r="V17" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="W17" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="X17" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="45">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA17" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB17" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC17" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD17" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE17" s="48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$AB2="右の画像"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$AB2="左の画像"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="L2:L11">
+      <formula1>AND(ISNUMBER(L2),(NOT(OR(NOT(ISERROR(DATEVALUE(L2))), AND(ISNUMBER(L2), LEFT(CELL("format", L2))="D")))))</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{8d41d6d7-36ce-4e0c-8c6d-cf2c54c39039}" enabled="0" method="" siteId="{8d41d6d7-36ce-4e0c-8c6d-cf2c54c39039}" removed="1"/>

--- a/論文関係/アンケート.xlsx
+++ b/論文関係/アンケート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaili\Documents\Unity\SotugyouKenkyuu\論文関係\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE959C26-0610-410D-960E-B3E4747D0F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676DFCE3-F90A-4030-97F3-36E8F681F4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="309">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -96,6 +96,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>寒さ表現</t>
     </r>
@@ -104,6 +105,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>はありましたか</t>
     </r>
@@ -318,6 +320,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>寒さ表現</t>
     </r>
@@ -326,6 +329,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>はありましたか</t>
     </r>
@@ -893,6 +897,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
@@ -1235,6 +1240,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -1416,6 +1422,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -1476,6 +1483,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -1605,6 +1613,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -1680,6 +1689,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -1700,6 +1710,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -1763,6 +1774,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -1882,33 +1894,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ローポリ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>環境パーティクル</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -2062,6 +2047,90 @@
     <t>年齢</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ポリゴン強調</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>キョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ポリゴン強調</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ポリゴン強調</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>キョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -2070,7 +2139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2081,6 +2150,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2088,11 +2158,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2149,6 +2221,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -3357,7 +3436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3741,34 +3820,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3777,39 +3835,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -3849,27 +3903,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9BCD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9BCD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3924,14 +3957,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="フォームの回答 2-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
-    </tableStyle>
-    <tableStyle name="フォームの回答 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="firstRowStripe" dxfId="10"/>
       <tableStyleElement type="secondRowStripe" dxfId="9"/>
+    </tableStyle>
+    <tableStyle name="フォームの回答 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4884,8 +4917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5260,7 +5293,7 @@
         <v>10</v>
       </c>
       <c r="M5">
-        <f t="shared" si="7"/>
+        <f>Z5</f>
         <v>6</v>
       </c>
       <c r="N5" s="16" t="s">
@@ -6175,7 +6208,7 @@
         <v>240</v>
       </c>
       <c r="N20" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6469,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K27" s="59" t="s">
         <v>175</v>
@@ -6519,7 +6552,7 @@
         <v>261</v>
       </c>
       <c r="L28" s="59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M28" s="59" t="s">
         <v>282</v>
@@ -6530,7 +6563,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="61" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="B29" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", J21:J29))))</f>
@@ -6574,7 +6607,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B30" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", J22:J30))))</f>
@@ -6656,13 +6689,13 @@
         <v>282</v>
       </c>
       <c r="K33" s="53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L33" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="M33" s="53" t="s">
         <v>298</v>
-      </c>
-      <c r="M33" s="53" t="s">
-        <v>299</v>
       </c>
       <c r="N33" s="53" t="s">
         <v>226</v>
@@ -6697,13 +6730,13 @@
         <v>8</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K34" s="53" t="s">
         <v>223</v>
       </c>
       <c r="L34" s="53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M34" s="53" t="s">
         <v>223</v>
@@ -6750,10 +6783,10 @@
         <v>223</v>
       </c>
       <c r="M35" s="53" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N35" s="53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -6785,19 +6818,19 @@
         <v>0</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K36" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L36" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M36" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N36" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -6829,19 +6862,19 @@
         <v>4</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K37" s="53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L37" s="53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M37" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="N37" s="53" t="s">
         <v>302</v>
-      </c>
-      <c r="N37" s="53" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -6934,7 +6967,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="66" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="B41" s="67">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", J33:J37))))</f>
@@ -6963,7 +6996,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B42" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", J33:J37))))</f>
@@ -7011,7 +7044,7 @@
         <v>206</v>
       </c>
       <c r="K44" s="125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
@@ -7463,6 +7496,18 @@
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="B3:E15 B59:E60">
     <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFF8696B"/>
+        <color theme="6" tint="0.79998168889431442"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:E58">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="5"/>
@@ -7487,18 +7532,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:L18">
     <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="5"/>
-        <cfvo type="num" val="10"/>
-        <color rgb="FFF8696B"/>
-        <color theme="6" tint="0.79998168889431442"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:E58">
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="5"/>
@@ -7534,8 +7567,8 @@
   </sheetPr>
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8294,7 +8327,7 @@
         <v>4</v>
       </c>
       <c r="Z8" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>161</v>
@@ -9012,7 +9045,7 @@
         <v>240</v>
       </c>
       <c r="N18" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -9311,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K25" s="47" t="s">
         <v>175</v>
@@ -9370,9 +9403,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="47" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B27">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", J19:J27))))</f>
@@ -9446,13 +9479,13 @@
         <v>282</v>
       </c>
       <c r="K30" s="53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L30" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="M30" s="53" t="s">
         <v>298</v>
-      </c>
-      <c r="M30" s="53" t="s">
-        <v>299</v>
       </c>
       <c r="N30" s="53" t="s">
         <v>226</v>
@@ -9487,13 +9520,13 @@
         <v>8</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K31" s="53" t="s">
         <v>223</v>
       </c>
       <c r="L31" s="53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M31" s="53" t="s">
         <v>223</v>
@@ -9540,10 +9573,10 @@
         <v>223</v>
       </c>
       <c r="M32" s="53" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N32" s="53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9575,19 +9608,19 @@
         <v>0</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K33" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L33" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M33" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N33" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9619,19 +9652,19 @@
         <v>4</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K34" s="53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L34" s="53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M34" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="N34" s="53" t="s">
         <v>302</v>
-      </c>
-      <c r="N34" s="53" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9723,7 +9756,7 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="B38">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", J30:J34))))</f>
@@ -9752,7 +9785,7 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" s="65">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", J30:J34))))</f>
@@ -11258,85 +11291,85 @@
     </row>
     <row r="18" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M18">
-        <f>H2+I2+H2*2+J2+K2/2</f>
+        <f t="shared" ref="M18:M31" si="0">H2+I2+H2*2+J2+K2/2</f>
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M19">
-        <f>H3+I3+H3*2+J3+K3/2</f>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
     </row>
     <row r="20" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M20">
-        <f>H4+I4+H4*2+J4+K4/2</f>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
     </row>
     <row r="21" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M21">
-        <f>H5+I5+H5*2+J5+K5/2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M22">
-        <f>H6+I6+H6*2+J6+K6/2</f>
+        <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
     </row>
     <row r="23" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M23">
-        <f>H7+I7+H7*2+J7+K7/2</f>
+        <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
     </row>
     <row r="24" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M24">
-        <f>H8+I8+H8*2+J8+K8/2</f>
+        <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
     </row>
     <row r="25" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M25">
-        <f>H9+I9+H9*2+J9+K9/2</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M26">
-        <f>H10+I10+H10*2+J10+K10/2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M27">
-        <f>H11+I11+H11*2+J11+K11/2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M28">
-        <f>H12+I12+H12*2+J12+K12/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M29">
-        <f>H13+I13+H13*2+J13+K13/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M30">
-        <f>H14+I14+H14*2+J14+K14/2</f>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
     </row>
     <row r="31" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M31">
-        <f>H15+I15+H15*2+J15+K15/2</f>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
     </row>
@@ -11364,7 +11397,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9B237F-4F5B-4821-B278-E567633472F6}">
-  <dimension ref="A1:AT15"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -11372,9 +11405,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="130" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -11457,1270 +11490,1253 @@
       <c r="AB1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="146" t="s">
+      <c r="AC1" s="137" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="131">
+      <c r="D2" s="5">
         <v>36</v>
       </c>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="131">
-        <v>4</v>
-      </c>
-      <c r="G2" s="131">
-        <v>3</v>
-      </c>
-      <c r="H2" s="131">
-        <v>4</v>
-      </c>
-      <c r="I2" s="131">
+      <c r="F2" s="5">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5">
         <v>2</v>
       </c>
-      <c r="J2" s="131">
-        <v>3</v>
-      </c>
-      <c r="K2" s="131">
+      <c r="J2" s="5">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5">
         <v>7</v>
       </c>
-      <c r="L2" s="132" t="s">
+      <c r="L2" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="M2" s="133" t="s">
+      <c r="M2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="131">
+      <c r="N2" s="5">
         <v>2</v>
       </c>
-      <c r="O2" s="131">
+      <c r="O2" s="5">
         <v>9</v>
       </c>
-      <c r="P2" s="131" t="s">
+      <c r="P2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="131" t="s">
+      <c r="Q2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R2" s="131">
-        <v>4</v>
-      </c>
-      <c r="S2" s="131">
+      <c r="R2" s="5">
+        <v>4</v>
+      </c>
+      <c r="S2" s="5">
         <v>10</v>
       </c>
-      <c r="T2" s="131" t="s">
+      <c r="T2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="131" t="s">
+      <c r="U2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="131">
-        <v>1</v>
-      </c>
-      <c r="W2" s="131">
-        <v>3</v>
-      </c>
-      <c r="X2" s="131" t="s">
+      <c r="V2" s="5">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5">
+        <v>3</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Y2" s="131" t="s">
+      <c r="Y2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Z2" s="131" t="s">
+      <c r="Z2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="131" t="s">
+      <c r="AA2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="131" t="s">
+      <c r="AB2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="147" t="s">
+      <c r="AC2" s="138" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="134">
+      <c r="D3" s="8">
         <v>37</v>
       </c>
-      <c r="E3" s="134" t="s">
+      <c r="E3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="134">
-        <v>4</v>
-      </c>
-      <c r="G3" s="134">
+      <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="134">
+      <c r="H3" s="8">
         <v>5</v>
       </c>
-      <c r="I3" s="134">
-        <v>3</v>
-      </c>
-      <c r="J3" s="134">
-        <v>4</v>
-      </c>
-      <c r="K3" s="134">
+      <c r="I3" s="8">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8">
         <v>8</v>
       </c>
-      <c r="L3" s="135" t="s">
+      <c r="L3" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="135" t="s">
+      <c r="M3" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="134">
-        <v>1</v>
-      </c>
-      <c r="O3" s="134">
-        <v>3</v>
-      </c>
-      <c r="P3" s="134" t="s">
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8">
+        <v>3</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="134" t="s">
+      <c r="Q3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="134">
+      <c r="R3" s="8">
         <v>2</v>
       </c>
-      <c r="S3" s="134">
+      <c r="S3" s="8">
         <v>7</v>
       </c>
-      <c r="T3" s="134" t="s">
+      <c r="T3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="134" t="s">
+      <c r="U3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="134">
-        <v>3</v>
-      </c>
-      <c r="W3" s="134">
+      <c r="V3" s="8">
+        <v>3</v>
+      </c>
+      <c r="W3" s="8">
         <v>5</v>
       </c>
-      <c r="X3" s="134" t="s">
+      <c r="X3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="Y3" s="134" t="s">
+      <c r="Y3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="Z3" s="134" t="s">
+      <c r="Z3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="134" t="s">
+      <c r="AA3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="134" t="s">
+      <c r="AB3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AC3" s="148" t="s">
+      <c r="AC3" s="139" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="131">
+      <c r="D4" s="5">
         <v>35</v>
       </c>
-      <c r="E4" s="131" t="s">
+      <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="131">
-        <v>4</v>
-      </c>
-      <c r="G4" s="131">
-        <v>1</v>
-      </c>
-      <c r="H4" s="131">
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="I4" s="131">
+      <c r="I4" s="5">
         <v>5</v>
       </c>
-      <c r="J4" s="131">
-        <v>1</v>
-      </c>
-      <c r="K4" s="131">
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
         <v>6</v>
       </c>
-      <c r="L4" s="133" t="s">
+      <c r="L4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="133" t="s">
+      <c r="M4" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="N4" s="131">
-        <v>4</v>
-      </c>
-      <c r="O4" s="131">
+      <c r="N4" s="5">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5">
         <v>9</v>
       </c>
-      <c r="P4" s="131" t="s">
+      <c r="P4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Q4" s="131" t="s">
+      <c r="Q4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="R4" s="131">
+      <c r="R4" s="5">
         <v>2</v>
       </c>
-      <c r="S4" s="131">
+      <c r="S4" s="5">
         <v>7</v>
       </c>
-      <c r="T4" s="131" t="s">
+      <c r="T4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="U4" s="131" t="s">
+      <c r="U4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="V4" s="131">
-        <v>3</v>
-      </c>
-      <c r="W4" s="131">
+      <c r="V4" s="5">
+        <v>3</v>
+      </c>
+      <c r="W4" s="5">
         <v>7</v>
       </c>
-      <c r="X4" s="131" t="s">
+      <c r="X4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" s="131" t="s">
+      <c r="Y4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" s="131" t="s">
+      <c r="Z4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AA4" s="131" t="s">
+      <c r="AA4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="131" t="s">
+      <c r="AB4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AC4" s="147" t="s">
+      <c r="AC4" s="138" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="131">
+      <c r="D5" s="5">
         <v>36.6</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="131">
-        <v>1</v>
-      </c>
-      <c r="G5" s="131">
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
         <v>5</v>
       </c>
-      <c r="H5" s="131">
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="131">
+      <c r="I5" s="5">
         <v>2</v>
       </c>
-      <c r="J5" s="131">
-        <v>1</v>
-      </c>
-      <c r="K5" s="131">
-        <v>4</v>
-      </c>
-      <c r="L5" s="133" t="s">
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="133" t="s">
+      <c r="M5" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="N5" s="131">
-        <v>3</v>
-      </c>
-      <c r="O5" s="131">
-        <v>4</v>
-      </c>
-      <c r="P5" s="131" t="s">
+      <c r="N5" s="5">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>4</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="Q5" s="131" t="s">
+      <c r="Q5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="R5" s="131">
+      <c r="R5" s="5">
         <v>2</v>
       </c>
-      <c r="S5" s="131">
+      <c r="S5" s="5">
         <v>6</v>
       </c>
-      <c r="T5" s="131" t="s">
+      <c r="T5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="U5" s="131" t="s">
+      <c r="U5" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="V5" s="131">
-        <v>4</v>
-      </c>
-      <c r="W5" s="131">
+      <c r="V5" s="5">
+        <v>4</v>
+      </c>
+      <c r="W5" s="5">
         <v>7</v>
       </c>
-      <c r="X5" s="131" t="s">
+      <c r="X5" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="Y5" s="131" t="s">
+      <c r="Y5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Z5" s="131" t="s">
+      <c r="Z5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AA5" s="131" t="s">
+      <c r="AA5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="131" t="s">
+      <c r="AB5" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AC5" s="147" t="s">
+      <c r="AC5" s="138" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="134">
+      <c r="D6" s="8">
         <v>35.799999999999997</v>
       </c>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="134">
-        <v>3</v>
-      </c>
-      <c r="G6" s="134">
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
         <v>5</v>
       </c>
-      <c r="H6" s="134">
+      <c r="H6" s="8">
         <v>5</v>
       </c>
-      <c r="I6" s="134">
+      <c r="I6" s="8">
         <v>5</v>
       </c>
-      <c r="J6" s="134">
-        <v>4</v>
-      </c>
-      <c r="K6" s="134">
+      <c r="J6" s="8">
+        <v>4</v>
+      </c>
+      <c r="K6" s="8">
         <v>10</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="N6" s="134">
+      <c r="N6" s="8">
         <v>2</v>
       </c>
-      <c r="O6" s="134">
-        <v>1</v>
-      </c>
-      <c r="P6" s="134" t="s">
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="Q6" s="134" t="s">
+      <c r="Q6" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="R6" s="134">
-        <v>3</v>
-      </c>
-      <c r="S6" s="134">
+      <c r="R6" s="8">
+        <v>3</v>
+      </c>
+      <c r="S6" s="8">
         <v>7</v>
       </c>
-      <c r="T6" s="134" t="s">
+      <c r="T6" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="U6" s="134" t="s">
+      <c r="U6" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="V6" s="134">
-        <v>1</v>
-      </c>
-      <c r="W6" s="134">
+      <c r="V6" s="8">
+        <v>1</v>
+      </c>
+      <c r="W6" s="8">
         <v>10</v>
       </c>
-      <c r="X6" s="134" t="s">
+      <c r="X6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="Y6" s="134" t="s">
+      <c r="Y6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="Z6" s="134" t="s">
+      <c r="Z6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="134" t="s">
+      <c r="AA6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="134" t="s">
+      <c r="AB6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="148" t="s">
+      <c r="AC6" s="139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="5">
         <v>36.700000000000003</v>
       </c>
-      <c r="E7" s="131" t="s">
+      <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="131">
-        <v>3</v>
-      </c>
-      <c r="G7" s="131">
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="131">
-        <v>4</v>
-      </c>
-      <c r="I7" s="131">
-        <v>3</v>
-      </c>
-      <c r="J7" s="131">
+      <c r="H7" s="5">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5">
         <v>2</v>
       </c>
-      <c r="K7" s="131">
+      <c r="K7" s="5">
         <v>7</v>
       </c>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="M7" s="133" t="s">
+      <c r="M7" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="N7" s="131">
-        <v>4</v>
-      </c>
-      <c r="O7" s="131">
+      <c r="N7" s="5">
+        <v>4</v>
+      </c>
+      <c r="O7" s="5">
         <v>10</v>
       </c>
-      <c r="P7" s="131" t="s">
+      <c r="P7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="Q7" s="131" t="s">
+      <c r="Q7" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="R7" s="131">
-        <v>3</v>
-      </c>
-      <c r="S7" s="131">
+      <c r="R7" s="5">
+        <v>3</v>
+      </c>
+      <c r="S7" s="5">
         <v>9</v>
       </c>
-      <c r="T7" s="131" t="s">
+      <c r="T7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="U7" s="131" t="s">
+      <c r="U7" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="V7" s="131">
-        <v>1</v>
-      </c>
-      <c r="W7" s="131">
-        <v>3</v>
-      </c>
-      <c r="X7" s="131" t="s">
+      <c r="V7" s="5">
+        <v>1</v>
+      </c>
+      <c r="W7" s="5">
+        <v>3</v>
+      </c>
+      <c r="X7" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="Y7" s="131" t="s">
+      <c r="Y7" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="Z7" s="131" t="s">
+      <c r="Z7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AA7" s="131" t="s">
+      <c r="AA7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AB7" s="131" t="s">
+      <c r="AB7" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AC7" s="147" t="s">
+      <c r="AC7" s="138" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="134">
+      <c r="D8" s="8">
         <v>36.299999999999997</v>
       </c>
-      <c r="E8" s="134" t="s">
+      <c r="E8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="134">
-        <v>3</v>
-      </c>
-      <c r="G8" s="134">
-        <v>4</v>
-      </c>
-      <c r="H8" s="134">
-        <v>3</v>
-      </c>
-      <c r="I8" s="134">
+      <c r="F8" s="8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="8">
         <v>5</v>
       </c>
-      <c r="J8" s="134">
+      <c r="J8" s="8">
         <v>2</v>
       </c>
-      <c r="K8" s="134">
+      <c r="K8" s="8">
         <v>8</v>
       </c>
-      <c r="L8" s="135" t="s">
+      <c r="L8" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="M8" s="135" t="s">
+      <c r="M8" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="N8" s="134">
-        <v>3</v>
-      </c>
-      <c r="O8" s="134">
+      <c r="N8" s="8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="8">
         <v>5</v>
       </c>
-      <c r="P8" s="134" t="s">
+      <c r="P8" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="Q8" s="134" t="s">
+      <c r="Q8" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="R8" s="134">
-        <v>4</v>
-      </c>
-      <c r="S8" s="134">
+      <c r="R8" s="8">
+        <v>4</v>
+      </c>
+      <c r="S8" s="8">
         <v>10</v>
       </c>
-      <c r="T8" s="134" t="s">
+      <c r="T8" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="U8" s="134" t="s">
+      <c r="U8" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="V8" s="134">
-        <v>1</v>
-      </c>
-      <c r="W8" s="134">
-        <v>4</v>
-      </c>
-      <c r="X8" s="134" t="s">
+      <c r="V8" s="8">
+        <v>1</v>
+      </c>
+      <c r="W8" s="8">
+        <v>4</v>
+      </c>
+      <c r="X8" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="Y8" s="134" t="s">
+      <c r="Y8" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="Z8" s="134" t="s">
+      <c r="Z8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA8" s="134" t="s">
+      <c r="AA8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AB8" s="134" t="s">
+      <c r="AB8" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AC8" s="148" t="s">
+      <c r="AC8" s="139" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="137" t="s">
+    <row r="9" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="138">
+      <c r="D9" s="131">
         <v>36.5</v>
       </c>
-      <c r="E9" s="138" t="s">
+      <c r="E9" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="138">
-        <v>3</v>
-      </c>
-      <c r="G9" s="138">
-        <v>3</v>
-      </c>
-      <c r="H9" s="138">
-        <v>4</v>
-      </c>
-      <c r="I9" s="138">
+      <c r="F9" s="131">
+        <v>3</v>
+      </c>
+      <c r="G9" s="131">
+        <v>3</v>
+      </c>
+      <c r="H9" s="131">
+        <v>4</v>
+      </c>
+      <c r="I9" s="131">
         <v>2</v>
       </c>
-      <c r="J9" s="138">
-        <v>1</v>
-      </c>
-      <c r="K9" s="138">
-        <v>1</v>
-      </c>
-      <c r="L9" s="139" t="s">
+      <c r="J9" s="131">
+        <v>1</v>
+      </c>
+      <c r="K9" s="131">
+        <v>1</v>
+      </c>
+      <c r="L9" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="M9" s="139" t="s">
+      <c r="M9" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="N9" s="138">
+      <c r="N9" s="131">
         <v>2</v>
       </c>
-      <c r="O9" s="138">
+      <c r="O9" s="131">
         <v>7</v>
       </c>
-      <c r="P9" s="138" t="s">
+      <c r="P9" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="Q9" s="138" t="s">
+      <c r="Q9" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="R9" s="138">
-        <v>3</v>
-      </c>
-      <c r="S9" s="138">
+      <c r="R9" s="131">
+        <v>3</v>
+      </c>
+      <c r="S9" s="131">
         <v>7</v>
       </c>
-      <c r="T9" s="138" t="s">
+      <c r="T9" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="U9" s="138" t="s">
+      <c r="U9" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="V9" s="138">
-        <v>4</v>
-      </c>
-      <c r="W9" s="138">
-        <v>4</v>
-      </c>
-      <c r="X9" s="138" t="s">
+      <c r="V9" s="131">
+        <v>4</v>
+      </c>
+      <c r="W9" s="131">
+        <v>4</v>
+      </c>
+      <c r="X9" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="Y9" s="138" t="s">
+      <c r="Y9" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="Z9" s="138" t="s">
+      <c r="Z9" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="AA9" s="138" t="s">
+      <c r="AA9" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="AB9" s="138" t="s">
+      <c r="AB9" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="AC9" s="149" t="s">
+      <c r="AC9" s="140" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="141" t="s">
+    <row r="10" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="143">
+      <c r="D10" s="135">
         <v>36.5</v>
       </c>
-      <c r="E10" s="143" t="s">
+      <c r="E10" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="143">
+      <c r="F10" s="135">
         <v>2</v>
       </c>
-      <c r="G10" s="143">
-        <v>4</v>
-      </c>
-      <c r="H10" s="143">
-        <v>4</v>
-      </c>
-      <c r="I10" s="143">
-        <v>4</v>
-      </c>
-      <c r="J10" s="143">
-        <v>4</v>
-      </c>
-      <c r="K10" s="143">
+      <c r="G10" s="135">
+        <v>4</v>
+      </c>
+      <c r="H10" s="135">
+        <v>4</v>
+      </c>
+      <c r="I10" s="135">
+        <v>4</v>
+      </c>
+      <c r="J10" s="135">
+        <v>4</v>
+      </c>
+      <c r="K10" s="135">
         <v>7</v>
       </c>
-      <c r="L10" s="144" t="s">
+      <c r="L10" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="M10" s="144" t="s">
+      <c r="M10" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="N10" s="143">
-        <v>1</v>
-      </c>
-      <c r="O10" s="143">
-        <v>3</v>
-      </c>
-      <c r="P10" s="143" t="s">
+      <c r="N10" s="135">
+        <v>1</v>
+      </c>
+      <c r="O10" s="135">
+        <v>3</v>
+      </c>
+      <c r="P10" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="Q10" s="143" t="s">
+      <c r="Q10" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="143">
+      <c r="R10" s="135">
         <v>2</v>
       </c>
-      <c r="S10" s="143">
+      <c r="S10" s="135">
         <v>2</v>
       </c>
-      <c r="T10" s="143" t="s">
+      <c r="T10" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="U10" s="143" t="s">
+      <c r="U10" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="V10" s="143">
-        <v>3</v>
-      </c>
-      <c r="W10" s="143">
-        <v>3</v>
-      </c>
-      <c r="X10" s="143" t="s">
+      <c r="V10" s="135">
+        <v>3</v>
+      </c>
+      <c r="W10" s="135">
+        <v>3</v>
+      </c>
+      <c r="X10" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="Y10" s="143" t="s">
+      <c r="Y10" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="Z10" s="143" t="s">
+      <c r="Z10" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="AA10" s="143" t="s">
+      <c r="AA10" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="AB10" s="143" t="s">
+      <c r="AB10" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="AC10" s="150" t="s">
+      <c r="AC10" s="141" t="s">
         <v>184</v>
       </c>
-      <c r="AD10" s="145"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="145"/>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="145"/>
-      <c r="AK10" s="145"/>
-      <c r="AL10" s="145"/>
-      <c r="AM10" s="145"/>
-      <c r="AN10" s="145"/>
-      <c r="AO10" s="145"/>
-      <c r="AP10" s="145"/>
-      <c r="AQ10" s="145"/>
-      <c r="AR10" s="145"/>
-      <c r="AS10" s="145"/>
-      <c r="AT10" s="145"/>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A11" s="140" t="s">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="140">
+      <c r="D11" s="133">
         <v>36.6</v>
       </c>
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="140">
-        <v>3</v>
-      </c>
-      <c r="G11" s="140">
-        <v>3</v>
-      </c>
-      <c r="H11" s="140">
-        <v>1</v>
-      </c>
-      <c r="I11" s="140">
+      <c r="F11" s="133">
+        <v>3</v>
+      </c>
+      <c r="G11" s="133">
+        <v>3</v>
+      </c>
+      <c r="H11" s="133">
+        <v>1</v>
+      </c>
+      <c r="I11" s="133">
         <v>2</v>
       </c>
-      <c r="J11" s="140">
-        <v>1</v>
-      </c>
-      <c r="K11" s="140">
-        <v>1</v>
-      </c>
-      <c r="L11" s="140" t="s">
+      <c r="J11" s="133">
+        <v>1</v>
+      </c>
+      <c r="K11" s="133">
+        <v>1</v>
+      </c>
+      <c r="L11" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="140" t="s">
+      <c r="M11" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="140">
+      <c r="N11" s="133">
         <v>2</v>
       </c>
-      <c r="O11" s="140">
+      <c r="O11" s="133">
         <v>6</v>
       </c>
-      <c r="P11" s="140" t="s">
+      <c r="P11" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="140" t="s">
+      <c r="Q11" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="140">
-        <v>4</v>
-      </c>
-      <c r="S11" s="140">
+      <c r="R11" s="133">
+        <v>4</v>
+      </c>
+      <c r="S11" s="133">
         <v>7</v>
       </c>
-      <c r="T11" s="140" t="s">
+      <c r="T11" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="140" t="s">
+      <c r="U11" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="140">
-        <v>3</v>
-      </c>
-      <c r="W11" s="140">
+      <c r="V11" s="133">
+        <v>3</v>
+      </c>
+      <c r="W11" s="133">
         <v>8</v>
       </c>
-      <c r="X11" s="140" t="s">
+      <c r="X11" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="140" t="s">
+      <c r="Y11" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="140" t="s">
+      <c r="Z11" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="140" t="s">
+      <c r="AA11" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="AB11" s="140" t="s">
+      <c r="AB11" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="AC11" s="151" t="s">
+      <c r="AC11" s="142" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A12" s="134" t="s">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="134">
+      <c r="D12" s="8">
         <v>36.4</v>
       </c>
-      <c r="E12" s="134" t="s">
+      <c r="E12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="134">
-        <v>3</v>
-      </c>
-      <c r="G12" s="134">
+      <c r="F12" s="8">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8">
         <v>5</v>
       </c>
-      <c r="H12" s="134">
-        <v>4</v>
-      </c>
-      <c r="I12" s="134">
-        <v>4</v>
-      </c>
-      <c r="J12" s="134">
-        <v>1</v>
-      </c>
-      <c r="K12" s="134">
+      <c r="H12" s="8">
+        <v>4</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
         <v>7</v>
       </c>
-      <c r="L12" s="134" t="s">
+      <c r="L12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="134" t="s">
+      <c r="M12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="134">
+      <c r="N12" s="8">
         <v>2</v>
       </c>
-      <c r="O12" s="134">
+      <c r="O12" s="8">
         <v>8</v>
       </c>
-      <c r="P12" s="134" t="s">
+      <c r="P12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" s="134" t="s">
+      <c r="Q12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="134">
-        <v>4</v>
-      </c>
-      <c r="S12" s="134">
+      <c r="R12" s="8">
+        <v>4</v>
+      </c>
+      <c r="S12" s="8">
         <v>10</v>
       </c>
-      <c r="T12" s="134" t="s">
+      <c r="T12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="U12" s="134" t="s">
+      <c r="U12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="V12" s="134">
-        <v>3</v>
-      </c>
-      <c r="W12" s="134">
+      <c r="V12" s="8">
+        <v>3</v>
+      </c>
+      <c r="W12" s="8">
         <v>9</v>
       </c>
-      <c r="X12" s="134" t="s">
+      <c r="X12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Y12" s="134" t="s">
+      <c r="Y12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Z12" s="134" t="s">
+      <c r="Z12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AA12" s="134" t="s">
+      <c r="AA12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AB12" s="134" t="s">
+      <c r="AB12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AC12" s="148" t="s">
+      <c r="AC12" s="139" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A13" s="131" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="131">
+      <c r="D13" s="5">
         <v>36.299999999999997</v>
       </c>
-      <c r="E13" s="131" t="s">
+      <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="131">
-        <v>4</v>
-      </c>
-      <c r="G13" s="131">
+      <c r="F13" s="5">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5">
         <v>2</v>
       </c>
-      <c r="H13" s="131">
-        <v>4</v>
-      </c>
-      <c r="I13" s="131">
-        <v>4</v>
-      </c>
-      <c r="J13" s="131">
-        <v>1</v>
-      </c>
-      <c r="K13" s="131">
+      <c r="H13" s="5">
+        <v>4</v>
+      </c>
+      <c r="I13" s="5">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
         <v>7</v>
       </c>
-      <c r="L13" s="131" t="s">
+      <c r="L13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="131" t="s">
+      <c r="M13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="131">
+      <c r="N13" s="5">
         <v>2</v>
       </c>
-      <c r="O13" s="131">
+      <c r="O13" s="5">
         <v>8</v>
       </c>
-      <c r="P13" s="131" t="s">
+      <c r="P13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="131" t="s">
+      <c r="Q13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="R13" s="131">
-        <v>4</v>
-      </c>
-      <c r="S13" s="131">
+      <c r="R13" s="5">
+        <v>4</v>
+      </c>
+      <c r="S13" s="5">
         <v>9</v>
       </c>
-      <c r="T13" s="131" t="s">
+      <c r="T13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U13" s="131" t="s">
+      <c r="U13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="V13" s="131">
-        <v>3</v>
-      </c>
-      <c r="W13" s="131">
+      <c r="V13" s="5">
+        <v>3</v>
+      </c>
+      <c r="W13" s="5">
         <v>8</v>
       </c>
-      <c r="X13" s="131" t="s">
+      <c r="X13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Y13" s="131" t="s">
+      <c r="Y13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z13" s="131" t="s">
+      <c r="Z13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA13" s="131" t="s">
+      <c r="AA13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AB13" s="131" t="s">
+      <c r="AB13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AC13" s="147" t="s">
+      <c r="AC13" s="138" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A14" s="134" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="134">
+      <c r="D14" s="8">
         <v>36.799999999999997</v>
       </c>
-      <c r="E14" s="134" t="s">
+      <c r="E14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="134">
-        <v>4</v>
-      </c>
-      <c r="G14" s="134">
-        <v>4</v>
-      </c>
-      <c r="H14" s="134">
-        <v>4</v>
-      </c>
-      <c r="I14" s="134">
+      <c r="F14" s="8">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8">
         <v>5</v>
       </c>
-      <c r="J14" s="134">
-        <v>1</v>
-      </c>
-      <c r="K14" s="134">
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
         <v>6</v>
       </c>
-      <c r="L14" s="134" t="s">
+      <c r="L14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M14" s="134" t="s">
+      <c r="M14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="134">
+      <c r="N14" s="8">
         <v>2</v>
       </c>
-      <c r="O14" s="134">
+      <c r="O14" s="8">
         <v>7</v>
       </c>
-      <c r="P14" s="134" t="s">
+      <c r="P14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Q14" s="134" t="s">
+      <c r="Q14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="R14" s="134">
-        <v>4</v>
-      </c>
-      <c r="S14" s="134">
+      <c r="R14" s="8">
+        <v>4</v>
+      </c>
+      <c r="S14" s="8">
         <v>10</v>
       </c>
-      <c r="T14" s="134" t="s">
+      <c r="T14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="U14" s="134" t="s">
+      <c r="U14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="V14" s="134">
-        <v>3</v>
-      </c>
-      <c r="W14" s="134">
-        <v>4</v>
-      </c>
-      <c r="X14" s="134" t="s">
+      <c r="V14" s="8">
+        <v>3</v>
+      </c>
+      <c r="W14" s="8">
+        <v>4</v>
+      </c>
+      <c r="X14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Y14" s="134" t="s">
+      <c r="Y14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Z14" s="134" t="s">
+      <c r="Z14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA14" s="134" t="s">
+      <c r="AA14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AB14" s="134" t="s">
+      <c r="AB14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AC14" s="148" t="s">
+      <c r="AC14" s="139" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A15" s="136" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="136">
+      <c r="D15" s="11">
         <v>36.5</v>
       </c>
-      <c r="E15" s="136" t="s">
+      <c r="E15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="136">
-        <v>4</v>
-      </c>
-      <c r="G15" s="136">
-        <v>3</v>
-      </c>
-      <c r="H15" s="136">
-        <v>4</v>
-      </c>
-      <c r="I15" s="136">
-        <v>3</v>
-      </c>
-      <c r="J15" s="136">
-        <v>1</v>
-      </c>
-      <c r="K15" s="136">
+      <c r="F15" s="11">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4</v>
+      </c>
+      <c r="I15" s="11">
+        <v>3</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11">
         <v>6</v>
       </c>
-      <c r="L15" s="136" t="s">
+      <c r="L15" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="136" t="s">
+      <c r="M15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="N15" s="136">
+      <c r="N15" s="11">
         <v>2</v>
       </c>
-      <c r="O15" s="136">
+      <c r="O15" s="11">
         <v>7</v>
       </c>
-      <c r="P15" s="136" t="s">
+      <c r="P15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Q15" s="136" t="s">
+      <c r="Q15" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="R15" s="136">
-        <v>4</v>
-      </c>
-      <c r="S15" s="136">
+      <c r="R15" s="11">
+        <v>4</v>
+      </c>
+      <c r="S15" s="11">
         <v>9</v>
       </c>
-      <c r="T15" s="136" t="s">
+      <c r="T15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="U15" s="136" t="s">
+      <c r="U15" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="V15" s="136">
-        <v>3</v>
-      </c>
-      <c r="W15" s="136">
-        <v>4</v>
-      </c>
-      <c r="X15" s="136" t="s">
+      <c r="V15" s="11">
+        <v>3</v>
+      </c>
+      <c r="W15" s="11">
+        <v>4</v>
+      </c>
+      <c r="X15" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="Y15" s="136" t="s">
+      <c r="Y15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="Z15" s="136" t="s">
+      <c r="Z15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AA15" s="136" t="s">
+      <c r="AA15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AB15" s="136" t="s">
+      <c r="AB15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AC15" s="152" t="s">
+      <c r="AC15" s="143" t="s">
         <v>81</v>
       </c>
     </row>

--- a/論文関係/アンケート.xlsx
+++ b/論文関係/アンケート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaili\Documents\Unity\SotugyouKenkyuu\論文関係\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\school\Documents\UnityProject\Sotsuken\論文関係\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676DFCE3-F90A-4030-97F3-36E8F681F4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011FDEE9-2CBA-4C82-A2A2-6713ECA682B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 2" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="331">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -2037,13 +2037,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>左(ラスター)・右(ローポリ)</t>
-    <rPh sb="8" eb="9">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>年齢</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -2103,32 +2096,96 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ポリゴン強調</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>キョウチョウ</t>
-    </rPh>
+    <t>Area1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Area2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Area3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Area4</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Respondents</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Median</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Overall impression</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Number of occurrences of word</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Word</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"Motion"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"Sound"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"Texture"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"Character particle</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"Environment particle"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"Expression"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"Raster"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"Is not Cold"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"Highlighting polygons"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"Limit Frame rate"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Left image</t>
+  </si>
+  <si>
+    <t>Right image</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Left(Raster), Right(Highlighting polygons)</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2139,7 +2196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2230,6 +2287,12 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3436,7 +3499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3628,15 +3691,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -3859,11 +3913,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3889,20 +3974,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3957,14 +4028,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="フォームの回答 2-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
     <tableStyle name="フォームの回答 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4320,21 +4391,21 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:AE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" customWidth="1"/>
-    <col min="12" max="27" width="18.85546875" customWidth="1"/>
-    <col min="28" max="30" width="19.140625" customWidth="1"/>
-    <col min="31" max="37" width="18.85546875" customWidth="1"/>
+    <col min="1" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" customWidth="1"/>
+    <col min="12" max="27" width="18.88671875" customWidth="1"/>
+    <col min="28" max="30" width="19.109375" customWidth="1"/>
+    <col min="31" max="37" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4429,7 +4500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45671.52712042824</v>
       </c>
@@ -4524,7 +4595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45671.527323414353</v>
       </c>
@@ -4619,7 +4690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45671.52745094907</v>
       </c>
@@ -4714,7 +4785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45671.527452592592</v>
       </c>
@@ -4809,7 +4880,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>45671.536417696756</v>
       </c>
@@ -4917,39 +4988,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:G42"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44:K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" customWidth="1"/>
-    <col min="17" max="17" width="135.28515625" customWidth="1"/>
-    <col min="24" max="24" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
+    <col min="11" max="11" width="38.109375" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" customWidth="1"/>
+    <col min="14" max="14" width="24.5546875" customWidth="1"/>
+    <col min="17" max="17" width="135.33203125" customWidth="1"/>
+    <col min="24" max="24" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="21" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:26" s="21" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="89" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="75" t="s">
         <v>188</v>
       </c>
       <c r="F1" s="23" t="s">
@@ -4961,10 +5036,18 @@
       <c r="H1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="I1" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>310</v>
+      </c>
       <c r="N1" s="22" t="s">
         <v>1</v>
       </c>
@@ -4996,20 +5079,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="96">
-        <v>3</v>
-      </c>
-      <c r="C2" s="87">
+      <c r="B2" s="93">
+        <v>3</v>
+      </c>
+      <c r="C2" s="84">
         <v>9</v>
       </c>
-      <c r="D2" s="76">
+      <c r="D2" s="73">
         <v>7</v>
       </c>
-      <c r="E2" s="79">
+      <c r="E2" s="76">
         <v>10</v>
       </c>
       <c r="F2" s="24">
@@ -5080,20 +5163,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="97">
-        <v>3</v>
-      </c>
-      <c r="C3" s="88">
+      <c r="B3" s="94">
+        <v>3</v>
+      </c>
+      <c r="C3" s="85">
         <v>7</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="66">
         <v>5</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="77">
         <v>8</v>
       </c>
       <c r="F3" s="24">
@@ -5164,20 +5247,20 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="95" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="97">
+      <c r="B4" s="94">
         <v>6</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="85">
         <v>7</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="66">
         <v>7</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="77">
         <v>9</v>
       </c>
       <c r="F4" s="24">
@@ -5248,20 +5331,20 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="95" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="97">
-        <v>4</v>
-      </c>
-      <c r="C5" s="88">
+      <c r="B5" s="94">
+        <v>4</v>
+      </c>
+      <c r="C5" s="85">
         <v>6</v>
       </c>
-      <c r="D5" s="69">
-        <v>4</v>
-      </c>
-      <c r="E5" s="80">
+      <c r="D5" s="66">
+        <v>4</v>
+      </c>
+      <c r="E5" s="77">
         <v>7</v>
       </c>
       <c r="F5" s="24">
@@ -5332,20 +5415,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="97">
+      <c r="B6" s="94">
         <v>10</v>
       </c>
-      <c r="C6" s="88">
-        <v>1</v>
-      </c>
-      <c r="D6" s="69">
+      <c r="C6" s="85">
+        <v>1</v>
+      </c>
+      <c r="D6" s="66">
         <v>7</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="77">
         <v>10</v>
       </c>
       <c r="F6" s="24">
@@ -5416,20 +5499,20 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="97">
-        <v>3</v>
-      </c>
-      <c r="C7" s="88">
+      <c r="B7" s="94">
+        <v>3</v>
+      </c>
+      <c r="C7" s="85">
         <v>7</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="66">
         <v>9</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="77">
         <v>10</v>
       </c>
       <c r="F7" s="24">
@@ -5500,20 +5583,20 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="97">
-        <v>4</v>
-      </c>
-      <c r="C8" s="88">
+      <c r="B8" s="94">
+        <v>4</v>
+      </c>
+      <c r="C8" s="85">
         <v>8</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="66">
         <v>5</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="77">
         <v>10</v>
       </c>
       <c r="F8" s="24">
@@ -5584,20 +5667,20 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="97">
-        <v>1</v>
-      </c>
-      <c r="C9" s="88">
+      <c r="B9" s="94">
+        <v>1</v>
+      </c>
+      <c r="C9" s="85">
         <v>7</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="66">
         <v>7</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="77">
         <v>4</v>
       </c>
       <c r="F9" s="24">
@@ -5668,20 +5751,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="97">
-        <v>3</v>
-      </c>
-      <c r="C10" s="88">
+      <c r="B10" s="94">
+        <v>3</v>
+      </c>
+      <c r="C10" s="85">
         <v>2</v>
       </c>
-      <c r="D10" s="69">
-        <v>3</v>
-      </c>
-      <c r="E10" s="80">
+      <c r="D10" s="66">
+        <v>3</v>
+      </c>
+      <c r="E10" s="77">
         <v>7</v>
       </c>
       <c r="F10" s="24">
@@ -5752,20 +5835,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="95" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="97">
-        <v>1</v>
-      </c>
-      <c r="C11" s="88">
+      <c r="B11" s="94">
+        <v>1</v>
+      </c>
+      <c r="C11" s="85">
         <v>6</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="66">
         <v>8</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="77">
         <v>7</v>
       </c>
       <c r="F11" s="24">
@@ -5817,20 +5900,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="95" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="97">
+      <c r="B12" s="94">
         <v>7</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="85">
         <v>8</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="66">
         <v>9</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="77">
         <v>10</v>
       </c>
       <c r="F12" s="24">
@@ -5882,20 +5965,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="82" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="97">
+      <c r="B13" s="94">
         <v>7</v>
       </c>
-      <c r="C13" s="88">
+      <c r="C13" s="85">
         <v>8</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="66">
         <v>8</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="77">
         <v>9</v>
       </c>
       <c r="F13" s="24">
@@ -5947,20 +6030,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B14" s="94">
         <v>6</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="85">
         <v>7</v>
       </c>
-      <c r="D14" s="69">
-        <v>4</v>
-      </c>
-      <c r="E14" s="80">
+      <c r="D14" s="66">
+        <v>4</v>
+      </c>
+      <c r="E14" s="77">
         <v>10</v>
       </c>
       <c r="F14" s="24">
@@ -6012,20 +6095,20 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+    <row r="15" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="95">
         <v>6</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="86">
         <v>7</v>
       </c>
-      <c r="D15" s="70">
-        <v>4</v>
-      </c>
-      <c r="E15" s="81">
+      <c r="D15" s="67">
+        <v>4</v>
+      </c>
+      <c r="E15" s="78">
         <v>9</v>
       </c>
       <c r="F15" s="24">
@@ -6077,20 +6160,20 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="84" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="B16" s="96">
+      <c r="B16" s="93">
         <v>4.5714285714300003</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="87">
         <v>6.4285714285699997</v>
       </c>
-      <c r="D16" s="71">
+      <c r="D16" s="68">
         <v>6.2142857142899999</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="69">
         <v>8.5714285714299994</v>
       </c>
       <c r="F16" s="24"/>
@@ -6113,20 +6196,20 @@
         <v>9.5867346938775508</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="97">
-        <v>3</v>
-      </c>
-      <c r="C17" s="88">
+      <c r="B17" s="94">
+        <v>3</v>
+      </c>
+      <c r="C17" s="85">
         <v>7</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="66">
         <v>7</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="70">
         <v>10</v>
       </c>
       <c r="F17" s="24"/>
@@ -6137,20 +6220,20 @@
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
     </row>
-    <row r="18" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+    <row r="18" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="B18" s="99">
-        <v>4</v>
-      </c>
-      <c r="C18" s="91">
+      <c r="B18" s="96">
+        <v>4</v>
+      </c>
+      <c r="C18" s="88">
         <v>7</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="71">
         <v>7</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="72">
         <v>9</v>
       </c>
       <c r="F18" s="24"/>
@@ -6173,27 +6256,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
-        <v>231</v>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="141" t="s">
+        <v>316</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>238</v>
+        <v>308</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>232</v>
+        <v>310</v>
+      </c>
+      <c r="F20" s="141" t="s">
+        <v>314</v>
+      </c>
+      <c r="G20" s="141" t="s">
+        <v>315</v>
       </c>
       <c r="J20" s="47" t="s">
         <v>241</v>
@@ -6211,9 +6294,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="B21" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", J21:J29))))</f>
@@ -6255,9 +6338,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="B22" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", J21:J29))))</f>
@@ -6299,9 +6382,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
-        <v>227</v>
+        <v>318</v>
       </c>
       <c r="B23" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("音", J21:J29))))</f>
@@ -6343,9 +6426,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="B24" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", J21:J29))))</f>
@@ -6385,9 +6468,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="B25" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", J21:J29))))</f>
@@ -6429,9 +6512,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="B26" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("表情", J21:J29))))</f>
@@ -6473,9 +6556,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="B27" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", J21:J29))))</f>
@@ -6517,9 +6600,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="B28" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", J21:J29))))</f>
@@ -6561,9 +6644,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B29" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", J21:J29))))</f>
@@ -6605,9 +6688,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="B30" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", J22:J30))))</f>
@@ -6634,54 +6717,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="61" t="s">
-        <v>231</v>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="141" t="s">
+        <v>316</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>238</v>
+        <v>308</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="F32" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="G32" s="61" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="B33" s="67">
+        <v>310</v>
+      </c>
+      <c r="F32" s="141" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" s="141" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", J33:J37))))</f>
         <v>0</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="62">
         <f t="shared" ref="C33:F33" si="28">SUMPRODUCT(--(ISNUMBER(SEARCH("モーション", K33:K37))))</f>
         <v>3</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D33" s="62">
         <f t="shared" si="28"/>
         <v>3</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="62">
         <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="62">
         <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="62">
         <f>B33+C33+D33+E33+F33</f>
         <v>14</v>
       </c>
@@ -6701,31 +6784,31 @@
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="B34" s="67">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", J33:J37))))</f>
         <v>4</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="62">
         <f t="shared" ref="C34:E34" si="29">SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", K33:K37))))</f>
         <v>0</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="62">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="62">
         <f t="shared" si="29"/>
         <v>3</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="62">
         <f t="shared" ref="F34" si="30">SUMPRODUCT(--(ISNUMBER(SEARCH("環境パーティクル", N33:N41))))</f>
         <v>1</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="62">
         <f t="shared" ref="G34:G42" si="31">B34+C34+D34+E34+F34</f>
         <v>8</v>
       </c>
@@ -6745,31 +6828,31 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="B35" s="67">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("音", J33:J37))))</f>
         <v>1</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="62">
         <f t="shared" ref="C35:E35" si="32">SUMPRODUCT(--(ISNUMBER(SEARCH("音", K33:K37))))</f>
         <v>0</v>
       </c>
-      <c r="D35" s="67">
+      <c r="D35" s="62">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="62">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="F35" s="67">
+      <c r="F35" s="62">
         <f t="shared" ref="F35" si="33">SUMPRODUCT(--(ISNUMBER(SEARCH("音", N33:N41))))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="62">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -6789,31 +6872,31 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="B36" s="67">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="B36" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", J33:J37))))</f>
         <v>0</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="62">
         <f t="shared" ref="C36:E36" si="34">SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", K33:K37))))</f>
         <v>0</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="62">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="62">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F36" s="67">
+      <c r="F36" s="62">
         <f t="shared" ref="F36" si="35">SUMPRODUCT(--(ISNUMBER(SEARCH("テクスチャ", N33:N41))))</f>
         <v>0</v>
       </c>
-      <c r="G36" s="67">
+      <c r="G36" s="62">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
@@ -6833,31 +6916,31 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="B37" s="67">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="B37" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", J33:J37))))</f>
         <v>0</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="62">
         <f t="shared" ref="C37:E37" si="36">SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", K33:K37))))</f>
         <v>1</v>
       </c>
-      <c r="D37" s="67">
+      <c r="D37" s="62">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="62">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="F37" s="67">
+      <c r="F37" s="62">
         <f t="shared" ref="F37" si="37">SUMPRODUCT(--(ISNUMBER(SEARCH("キャラクターパーティクル", N33:N41))))</f>
         <v>1</v>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="62">
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
@@ -6877,126 +6960,126 @@
         <v>302</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="66" t="s">
-        <v>228</v>
-      </c>
-      <c r="B38" s="67">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("表情", J33:J37))))</f>
         <v>0</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="62">
         <f t="shared" ref="C38:E38" si="38">SUMPRODUCT(--(ISNUMBER(SEARCH("表情", K33:K37))))</f>
         <v>1</v>
       </c>
-      <c r="D38" s="67">
+      <c r="D38" s="62">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="62">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="F38" s="67">
+      <c r="F38" s="62">
         <f t="shared" ref="F38" si="39">SUMPRODUCT(--(ISNUMBER(SEARCH("表情", N33:N41))))</f>
         <v>0</v>
       </c>
-      <c r="G38" s="67">
+      <c r="G38" s="62">
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="I38" s="49"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="B39" s="67">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", J33:J37))))</f>
         <v>0</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="62">
         <f t="shared" ref="C39:E39" si="40">SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", K33:K37))))</f>
         <v>0</v>
       </c>
-      <c r="D39" s="67">
+      <c r="D39" s="62">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="62">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="F39" s="67">
+      <c r="F39" s="62">
         <f t="shared" ref="F39" si="41">SUMPRODUCT(--(ISNUMBER(SEARCH("ラスター", N33:N41))))</f>
         <v>0</v>
       </c>
-      <c r="G39" s="67">
+      <c r="G39" s="62">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="B40" s="67">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", J33:J37))))</f>
         <v>0</v>
       </c>
-      <c r="C40" s="67">
+      <c r="C40" s="62">
         <f t="shared" ref="C40:E40" si="42">SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", K33:K37))))</f>
         <v>0</v>
       </c>
-      <c r="D40" s="67">
+      <c r="D40" s="62">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="62">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F40" s="67">
+      <c r="F40" s="62">
         <f t="shared" ref="F40" si="43">SUMPRODUCT(--(ISNUMBER(SEARCH("フレームレート制限", N33:N41))))</f>
         <v>0</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="62">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="66" t="s">
-        <v>307</v>
-      </c>
-      <c r="B41" s="67">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", J33:J37))))</f>
         <v>0</v>
       </c>
-      <c r="C41" s="67">
+      <c r="C41" s="62">
         <f t="shared" ref="C41:E41" si="44">SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", K33:K37))))</f>
         <v>0</v>
       </c>
-      <c r="D41" s="67">
+      <c r="D41" s="62">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="E41" s="67">
+      <c r="E41" s="62">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="F41" s="67">
+      <c r="F41" s="62">
         <f t="shared" ref="F41" si="45">SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", N33:N41))))</f>
         <v>0</v>
       </c>
-      <c r="G41" s="67">
+      <c r="G41" s="62">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="B42" s="62">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("寒そうでない", J33:J37))))</f>
@@ -7018,484 +7101,484 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G42" s="67">
+      <c r="G42" s="62">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="B44" s="92" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="122" t="s">
-        <v>187</v>
-      </c>
-      <c r="E44" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="J44" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="K44" s="125" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="94" t="s">
+    <row r="43" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" s="89" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="74" t="s">
+        <v>308</v>
+      </c>
+      <c r="D44" s="119" t="s">
+        <v>309</v>
+      </c>
+      <c r="E44" s="75" t="s">
+        <v>310</v>
+      </c>
+      <c r="J44" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="K44" s="122" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="110">
-        <v>1</v>
-      </c>
-      <c r="C45" s="109">
+      <c r="B45" s="107">
+        <v>1</v>
+      </c>
+      <c r="C45" s="106">
         <v>8.7142857142857153</v>
       </c>
-      <c r="D45" s="108">
+      <c r="D45" s="105">
         <v>6.1428571428571432</v>
       </c>
-      <c r="E45" s="112">
+      <c r="E45" s="109">
         <v>10</v>
       </c>
       <c r="G45">
         <v>20</v>
       </c>
-      <c r="J45" s="94" t="s">
+      <c r="J45" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="K45" s="126" t="s">
-        <v>44</v>
+      <c r="K45" s="123" t="s">
+        <v>327</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="95" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="B46" s="113">
-        <v>1</v>
-      </c>
-      <c r="C46" s="114">
+      <c r="B46" s="110">
+        <v>1</v>
+      </c>
+      <c r="C46" s="111">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D46" s="111">
+      <c r="D46" s="108">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E46" s="115">
+      <c r="E46" s="112">
         <v>10</v>
       </c>
       <c r="G46">
         <v>20.5</v>
       </c>
-      <c r="J46" s="95" t="s">
+      <c r="J46" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="K46" s="127" t="s">
-        <v>31</v>
+      <c r="K46" s="124" t="s">
+        <v>328</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="95" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="113">
-        <v>1</v>
-      </c>
-      <c r="C47" s="116">
-        <v>4</v>
-      </c>
-      <c r="D47" s="111">
-        <v>4</v>
-      </c>
-      <c r="E47" s="115">
+      <c r="B47" s="110">
+        <v>1</v>
+      </c>
+      <c r="C47" s="113">
+        <v>4</v>
+      </c>
+      <c r="D47" s="108">
+        <v>4</v>
+      </c>
+      <c r="E47" s="112">
         <v>10</v>
       </c>
       <c r="G47">
         <v>20.5</v>
       </c>
-      <c r="J47" s="95" t="s">
+      <c r="J47" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="K47" s="127" t="s">
-        <v>44</v>
+      <c r="K47" s="124" t="s">
+        <v>327</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="95" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="113">
-        <v>1</v>
-      </c>
-      <c r="C48" s="114">
+      <c r="B48" s="110">
+        <v>1</v>
+      </c>
+      <c r="C48" s="111">
         <v>7</v>
       </c>
-      <c r="D48" s="111">
-        <v>1</v>
-      </c>
-      <c r="E48" s="117">
+      <c r="D48" s="108">
+        <v>1</v>
+      </c>
+      <c r="E48" s="114">
         <v>10</v>
       </c>
       <c r="G48">
         <v>11</v>
       </c>
-      <c r="J48" s="95" t="s">
+      <c r="J48" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="K48" s="127" t="s">
-        <v>44</v>
+      <c r="K48" s="124" t="s">
+        <v>327</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="95" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="B49" s="113">
+      <c r="B49" s="110">
         <v>10</v>
       </c>
-      <c r="C49" s="114">
-        <v>1</v>
-      </c>
-      <c r="D49" s="111">
+      <c r="C49" s="111">
+        <v>1</v>
+      </c>
+      <c r="D49" s="108">
         <v>7</v>
       </c>
-      <c r="E49" s="117">
+      <c r="E49" s="114">
         <v>10</v>
       </c>
       <c r="G49">
         <v>21.5</v>
       </c>
-      <c r="J49" s="95" t="s">
+      <c r="J49" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="K49" s="127" t="s">
-        <v>31</v>
+      <c r="K49" s="124" t="s">
+        <v>328</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="95" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="B50" s="113">
-        <v>1</v>
-      </c>
-      <c r="C50" s="114">
+      <c r="B50" s="110">
+        <v>1</v>
+      </c>
+      <c r="C50" s="111">
         <v>6.1428571428571432</v>
       </c>
-      <c r="D50" s="111">
+      <c r="D50" s="108">
         <v>8.7142857142857153</v>
       </c>
-      <c r="E50" s="117">
+      <c r="E50" s="114">
         <v>10</v>
       </c>
       <c r="G50">
         <v>16.5</v>
       </c>
-      <c r="J50" s="95" t="s">
+      <c r="J50" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="K50" s="127" t="s">
-        <v>31</v>
+      <c r="K50" s="124" t="s">
+        <v>328</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="95" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="B51" s="113">
-        <v>1</v>
-      </c>
-      <c r="C51" s="111">
+      <c r="B51" s="110">
+        <v>1</v>
+      </c>
+      <c r="C51" s="108">
         <v>7</v>
       </c>
-      <c r="D51" s="111">
+      <c r="D51" s="108">
         <v>2.5</v>
       </c>
-      <c r="E51" s="115">
+      <c r="E51" s="112">
         <v>10</v>
       </c>
       <c r="G51">
         <v>18.5</v>
       </c>
-      <c r="J51" s="95" t="s">
+      <c r="J51" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K51" s="127" t="s">
-        <v>31</v>
+      <c r="K51" s="124" t="s">
+        <v>328</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="95" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="B52" s="113">
-        <v>1</v>
-      </c>
-      <c r="C52" s="114">
+      <c r="B52" s="110">
+        <v>1</v>
+      </c>
+      <c r="C52" s="111">
         <v>10</v>
       </c>
-      <c r="D52" s="111">
+      <c r="D52" s="108">
         <v>10</v>
       </c>
-      <c r="E52" s="117">
+      <c r="E52" s="114">
         <v>5.5</v>
       </c>
       <c r="G52">
         <v>17</v>
       </c>
-      <c r="J52" s="95" t="s">
+      <c r="J52" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="K52" s="127" t="s">
-        <v>44</v>
+      <c r="K52" s="124" t="s">
+        <v>327</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="95" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="113">
+      <c r="B53" s="110">
         <v>2.8</v>
       </c>
-      <c r="C53" s="114">
-        <v>1</v>
-      </c>
-      <c r="D53" s="111">
+      <c r="C53" s="111">
+        <v>1</v>
+      </c>
+      <c r="D53" s="108">
         <v>2.8</v>
       </c>
-      <c r="E53" s="117">
+      <c r="E53" s="114">
         <v>10</v>
       </c>
       <c r="G53">
         <v>16</v>
       </c>
-      <c r="J53" s="129" t="s">
+      <c r="J53" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="K53" s="128" t="s">
-        <v>44</v>
+      <c r="K53" s="125" t="s">
+        <v>327</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="95" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="B54" s="113">
-        <v>1</v>
-      </c>
-      <c r="C54" s="114">
+      <c r="B54" s="110">
+        <v>1</v>
+      </c>
+      <c r="C54" s="111">
         <v>7.4285714285714288</v>
       </c>
-      <c r="D54" s="111">
+      <c r="D54" s="108">
         <v>10</v>
       </c>
-      <c r="E54" s="117">
+      <c r="E54" s="114">
         <v>8.7142857142857153</v>
       </c>
       <c r="G54">
         <v>14</v>
       </c>
-      <c r="J54" s="94" t="s">
+      <c r="J54" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="K54" s="126" t="s">
-        <v>31</v>
+      <c r="K54" s="123" t="s">
+        <v>328</v>
       </c>
       <c r="M54" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="95" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="B55" s="113">
-        <v>1</v>
-      </c>
-      <c r="C55" s="114">
-        <v>4</v>
-      </c>
-      <c r="D55" s="111">
+      <c r="B55" s="110">
+        <v>1</v>
+      </c>
+      <c r="C55" s="111">
+        <v>4</v>
+      </c>
+      <c r="D55" s="108">
         <v>7</v>
       </c>
-      <c r="E55" s="117">
+      <c r="E55" s="114">
         <v>10</v>
       </c>
       <c r="G55">
         <v>20</v>
       </c>
-      <c r="I55" s="124"/>
-      <c r="J55" s="95" t="s">
+      <c r="I55" s="121"/>
+      <c r="J55" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="K55" s="127" t="s">
-        <v>44</v>
+      <c r="K55" s="124" t="s">
+        <v>327</v>
       </c>
       <c r="M55" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="100" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="113">
-        <v>1</v>
-      </c>
-      <c r="C56" s="114">
+      <c r="B56" s="110">
+        <v>1</v>
+      </c>
+      <c r="C56" s="111">
         <v>5.5</v>
       </c>
-      <c r="D56" s="111">
+      <c r="D56" s="108">
         <v>5.5</v>
       </c>
-      <c r="E56" s="117">
+      <c r="E56" s="114">
         <v>10</v>
       </c>
       <c r="G56">
         <v>20</v>
       </c>
-      <c r="I56" s="124"/>
-      <c r="J56" s="95" t="s">
+      <c r="I56" s="121"/>
+      <c r="J56" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="K56" s="127" t="s">
-        <v>44</v>
+      <c r="K56" s="124" t="s">
+        <v>327</v>
       </c>
       <c r="M56" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="100" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="97" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="113">
-        <v>4</v>
-      </c>
-      <c r="C57" s="114">
+      <c r="B57" s="110">
+        <v>4</v>
+      </c>
+      <c r="C57" s="111">
         <v>5.5</v>
       </c>
-      <c r="D57" s="111">
-        <v>1</v>
-      </c>
-      <c r="E57" s="117">
+      <c r="D57" s="108">
+        <v>1</v>
+      </c>
+      <c r="E57" s="114">
         <v>10</v>
       </c>
       <c r="G57">
         <v>22.5</v>
       </c>
-      <c r="I57" s="124"/>
-      <c r="J57" s="95" t="s">
+      <c r="I57" s="121"/>
+      <c r="J57" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="K57" s="127" t="s">
-        <v>30</v>
+      <c r="K57" s="124" t="s">
+        <v>329</v>
       </c>
       <c r="M57" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="101" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="106">
+      <c r="B58" s="103">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C58" s="104">
+      <c r="C58" s="101">
         <v>6.4</v>
       </c>
-      <c r="D58" s="107">
-        <v>1</v>
-      </c>
-      <c r="E58" s="105">
+      <c r="D58" s="104">
+        <v>1</v>
+      </c>
+      <c r="E58" s="102">
         <v>10</v>
       </c>
       <c r="G58">
         <v>20.5</v>
       </c>
-      <c r="I58" s="124"/>
-      <c r="J58" s="129" t="s">
+      <c r="I58" s="121"/>
+      <c r="J58" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="K58" s="128" t="s">
-        <v>31</v>
+      <c r="K58" s="125" t="s">
+        <v>328</v>
       </c>
       <c r="M58" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="102" t="s">
-        <v>203</v>
-      </c>
-      <c r="B59" s="118">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="99" t="s">
+        <v>312</v>
+      </c>
+      <c r="B59" s="115">
         <v>2.2428571428571429</v>
       </c>
-      <c r="C59" s="119">
+      <c r="C59" s="116">
         <v>5.848979591836736</v>
       </c>
-      <c r="D59" s="120">
+      <c r="D59" s="117">
         <v>5.0897959183673462</v>
       </c>
-      <c r="E59" s="121">
+      <c r="E59" s="118">
         <v>9.5867346938775508</v>
       </c>
       <c r="M59" s="39"/>
     </row>
-    <row r="60" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="B60" s="106">
-        <v>1</v>
-      </c>
-      <c r="C60" s="104">
+    <row r="60" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="100" t="s">
+        <v>313</v>
+      </c>
+      <c r="B60" s="103">
+        <v>1</v>
+      </c>
+      <c r="C60" s="101">
         <v>6.2714285714285722</v>
       </c>
-      <c r="D60" s="123">
+      <c r="D60" s="120">
         <v>5.05</v>
       </c>
-      <c r="E60" s="105">
+      <c r="E60" s="102">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="B3:E15 B59:E60">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="5"/>
@@ -7507,18 +7590,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:E58">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="5"/>
-        <cfvo type="num" val="10"/>
-        <color rgb="FFF8696B"/>
-        <color theme="6" tint="0.79998168889431442"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H2 F6:L15 F3:H5 I2:L5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -7530,8 +7601,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:L18">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="B21:F30">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="6" tint="0.79998168889431442"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:F42">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="6" tint="0.79998168889431442"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H2 F6:L15 F3:H5 I2:L5">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="5"/>
@@ -7542,12 +7637,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B16:L18">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFF8696B"/>
+        <color theme="6" tint="0.79998168889431442"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G30">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="6" tint="0.79998168889431442"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G42">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="6" tint="0.79998168889431442"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K45:K58">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$K45="右の画像"</formula>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$K45="Right image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$K45="左の画像"</formula>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$K45="Left image"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7567,29 +7698,29 @@
   </sheetPr>
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" customWidth="1"/>
-    <col min="13" max="13" width="42.7109375" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
-    <col min="15" max="27" width="18.85546875" customWidth="1"/>
-    <col min="28" max="30" width="19.140625" customWidth="1"/>
-    <col min="31" max="37" width="18.85546875" customWidth="1"/>
+    <col min="2" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" customWidth="1"/>
+    <col min="15" max="27" width="18.88671875" customWidth="1"/>
+    <col min="28" max="30" width="19.109375" customWidth="1"/>
+    <col min="31" max="37" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7684,7 +7815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45664.070040613427</v>
       </c>
@@ -7779,7 +7910,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45664.128990439815</v>
       </c>
@@ -7872,7 +8003,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45664.587324293985</v>
       </c>
@@ -7967,7 +8098,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45666.554572465277</v>
       </c>
@@ -8062,7 +8193,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45666.627789085644</v>
       </c>
@@ -8155,7 +8286,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45666.675356979162</v>
       </c>
@@ -8250,7 +8381,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45666.883787870371</v>
       </c>
@@ -8345,7 +8476,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45667.867273032403</v>
       </c>
@@ -8440,7 +8571,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>45670.00666561343</v>
       </c>
@@ -8535,7 +8666,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>45671.52712042824</v>
       </c>
@@ -8630,7 +8761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>45671.527323414353</v>
       </c>
@@ -8725,7 +8856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>45671.52745094907</v>
       </c>
@@ -8820,7 +8951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>45671.527452592592</v>
       </c>
@@ -8915,7 +9046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43">
         <v>45671.536417696756</v>
       </c>
@@ -9010,7 +9141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>231</v>
       </c>
@@ -9051,7 +9182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>283</v>
       </c>
@@ -9095,7 +9226,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>225</v>
       </c>
@@ -9139,7 +9270,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>227</v>
       </c>
@@ -9183,7 +9314,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>284</v>
       </c>
@@ -9227,7 +9358,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>233</v>
       </c>
@@ -9271,7 +9402,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>228</v>
       </c>
@@ -9315,7 +9446,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>285</v>
       </c>
@@ -9359,7 +9490,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>230</v>
       </c>
@@ -9403,9 +9534,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B27">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", J19:J27))))</f>
@@ -9447,7 +9578,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>283</v>
       </c>
@@ -9491,7 +9622,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>225</v>
       </c>
@@ -9535,7 +9666,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
         <v>227</v>
       </c>
@@ -9579,7 +9710,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>284</v>
       </c>
@@ -9623,7 +9754,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
         <v>233</v>
       </c>
@@ -9667,7 +9798,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>228</v>
       </c>
@@ -9696,7 +9827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>285</v>
       </c>
@@ -9725,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>230</v>
       </c>
@@ -9754,9 +9885,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38">
         <f>SUMPRODUCT(--(ISNUMBER(SEARCH("ローポリ", J30:J34))))</f>
@@ -9783,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="64" t="s">
         <v>289</v>
       </c>
@@ -9815,10 +9946,10 @@
   </sheetData>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="E2:E10">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$AB2="右の画像"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$AB2="左の画像"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9842,29 +9973,29 @@
   </sheetPr>
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Z7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomRight" activeCell="AB2" sqref="AB2:AB15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" customWidth="1"/>
-    <col min="13" max="27" width="18.85546875" customWidth="1"/>
-    <col min="28" max="30" width="19.140625" customWidth="1"/>
-    <col min="31" max="37" width="18.85546875" customWidth="1"/>
+    <col min="1" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" customWidth="1"/>
+    <col min="13" max="27" width="18.88671875" customWidth="1"/>
+    <col min="28" max="30" width="19.109375" customWidth="1"/>
+    <col min="31" max="37" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9959,7 +10090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45664.070040613427</v>
       </c>
@@ -10054,7 +10185,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45664.128990439815</v>
       </c>
@@ -10149,7 +10280,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45664.587324293985</v>
       </c>
@@ -10244,7 +10375,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45666.554572465277</v>
       </c>
@@ -10339,7 +10470,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45666.627789085644</v>
       </c>
@@ -10434,7 +10565,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45666.675356979162</v>
       </c>
@@ -10529,7 +10660,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45666.883787870371</v>
       </c>
@@ -10624,7 +10755,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45667.867273032403</v>
       </c>
@@ -10719,7 +10850,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>45670.00666561343</v>
       </c>
@@ -10814,7 +10945,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>45671.52712042824</v>
       </c>
@@ -10909,7 +11040,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>45671.527323414353</v>
       </c>
@@ -11004,7 +11135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <v>45671.52745094907</v>
       </c>
@@ -11099,7 +11230,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>45671.527452592592</v>
       </c>
@@ -11194,7 +11325,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
         <v>45671.536417696756</v>
       </c>
@@ -11289,85 +11420,85 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M18">
         <f t="shared" ref="M18:M31" si="0">H2+I2+H2*2+J2+K2/2</f>
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M19">
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
     </row>
-    <row r="20" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M20">
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
     </row>
-    <row r="21" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M22">
         <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
     </row>
-    <row r="23" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M23">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
     </row>
-    <row r="24" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M24">
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
     </row>
-    <row r="25" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M26">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M27">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M29">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M30">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
     </row>
-    <row r="31" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="13:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M31">
         <f t="shared" si="0"/>
         <v>20.5</v>
@@ -11376,10 +11507,10 @@
   </sheetData>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="E2:E10">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$AB2="右の画像"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$AB2="左の画像"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11399,15 +11530,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9B237F-4F5B-4821-B278-E567633472F6}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="43" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
-        <v>305</v>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="127" t="s">
+        <v>304</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -11490,11 +11621,11 @@
       <c r="AB1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="137" t="s">
+      <c r="AC1" s="134" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -11579,11 +11710,11 @@
       <c r="AB2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="138" t="s">
+      <c r="AC2" s="135" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -11668,11 +11799,11 @@
       <c r="AB3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AC3" s="139" t="s">
+      <c r="AC3" s="136" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -11757,11 +11888,11 @@
       <c r="AB4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AC4" s="138" t="s">
+      <c r="AC4" s="135" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -11846,11 +11977,11 @@
       <c r="AB5" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AC5" s="138" t="s">
+      <c r="AC5" s="135" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>127</v>
       </c>
@@ -11935,11 +12066,11 @@
       <c r="AB6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="139" t="s">
+      <c r="AC6" s="136" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>139</v>
       </c>
@@ -12024,11 +12155,11 @@
       <c r="AB7" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AC7" s="138" t="s">
+      <c r="AC7" s="135" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="132" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -12113,278 +12244,278 @@
       <c r="AB8" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AC8" s="139" t="s">
+      <c r="AC8" s="136" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+    <row r="9" spans="1:29" ht="66" x14ac:dyDescent="0.25">
+      <c r="A9" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="131">
+      <c r="D9" s="128">
         <v>36.5</v>
       </c>
-      <c r="E9" s="131" t="s">
+      <c r="E9" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="131">
-        <v>3</v>
-      </c>
-      <c r="G9" s="131">
-        <v>3</v>
-      </c>
-      <c r="H9" s="131">
-        <v>4</v>
-      </c>
-      <c r="I9" s="131">
+      <c r="F9" s="128">
+        <v>3</v>
+      </c>
+      <c r="G9" s="128">
+        <v>3</v>
+      </c>
+      <c r="H9" s="128">
+        <v>4</v>
+      </c>
+      <c r="I9" s="128">
         <v>2</v>
       </c>
-      <c r="J9" s="131">
-        <v>1</v>
-      </c>
-      <c r="K9" s="131">
-        <v>1</v>
-      </c>
-      <c r="L9" s="132" t="s">
+      <c r="J9" s="128">
+        <v>1</v>
+      </c>
+      <c r="K9" s="128">
+        <v>1</v>
+      </c>
+      <c r="L9" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="M9" s="132" t="s">
+      <c r="M9" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="N9" s="131">
+      <c r="N9" s="128">
         <v>2</v>
       </c>
-      <c r="O9" s="131">
+      <c r="O9" s="128">
         <v>7</v>
       </c>
-      <c r="P9" s="131" t="s">
+      <c r="P9" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="Q9" s="131" t="s">
+      <c r="Q9" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="R9" s="131">
-        <v>3</v>
-      </c>
-      <c r="S9" s="131">
+      <c r="R9" s="128">
+        <v>3</v>
+      </c>
+      <c r="S9" s="128">
         <v>7</v>
       </c>
-      <c r="T9" s="131" t="s">
+      <c r="T9" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="U9" s="131" t="s">
+      <c r="U9" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="V9" s="131">
-        <v>4</v>
-      </c>
-      <c r="W9" s="131">
-        <v>4</v>
-      </c>
-      <c r="X9" s="131" t="s">
+      <c r="V9" s="128">
+        <v>4</v>
+      </c>
+      <c r="W9" s="128">
+        <v>4</v>
+      </c>
+      <c r="X9" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="Y9" s="131" t="s">
+      <c r="Y9" s="128" t="s">
         <v>171</v>
       </c>
-      <c r="Z9" s="131" t="s">
+      <c r="Z9" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="AA9" s="131" t="s">
+      <c r="AA9" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="AB9" s="131" t="s">
+      <c r="AB9" s="128" t="s">
         <v>172</v>
       </c>
-      <c r="AC9" s="140" t="s">
+      <c r="AC9" s="137" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="134" t="s">
+    <row r="10" spans="1:29" ht="66" x14ac:dyDescent="0.25">
+      <c r="A10" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="135">
+      <c r="D10" s="132">
         <v>36.5</v>
       </c>
-      <c r="E10" s="135" t="s">
+      <c r="E10" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="135">
+      <c r="F10" s="132">
         <v>2</v>
       </c>
-      <c r="G10" s="135">
-        <v>4</v>
-      </c>
-      <c r="H10" s="135">
-        <v>4</v>
-      </c>
-      <c r="I10" s="135">
-        <v>4</v>
-      </c>
-      <c r="J10" s="135">
-        <v>4</v>
-      </c>
-      <c r="K10" s="135">
+      <c r="G10" s="132">
+        <v>4</v>
+      </c>
+      <c r="H10" s="132">
+        <v>4</v>
+      </c>
+      <c r="I10" s="132">
+        <v>4</v>
+      </c>
+      <c r="J10" s="132">
+        <v>4</v>
+      </c>
+      <c r="K10" s="132">
         <v>7</v>
       </c>
-      <c r="L10" s="136" t="s">
+      <c r="L10" s="133" t="s">
         <v>175</v>
       </c>
-      <c r="M10" s="136" t="s">
+      <c r="M10" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="N10" s="135">
-        <v>1</v>
-      </c>
-      <c r="O10" s="135">
-        <v>3</v>
-      </c>
-      <c r="P10" s="135" t="s">
+      <c r="N10" s="132">
+        <v>1</v>
+      </c>
+      <c r="O10" s="132">
+        <v>3</v>
+      </c>
+      <c r="P10" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="Q10" s="135" t="s">
+      <c r="Q10" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="135">
+      <c r="R10" s="132">
         <v>2</v>
       </c>
-      <c r="S10" s="135">
+      <c r="S10" s="132">
         <v>2</v>
       </c>
-      <c r="T10" s="135" t="s">
+      <c r="T10" s="132" t="s">
         <v>179</v>
       </c>
-      <c r="U10" s="135" t="s">
+      <c r="U10" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="V10" s="135">
-        <v>3</v>
-      </c>
-      <c r="W10" s="135">
-        <v>3</v>
-      </c>
-      <c r="X10" s="135" t="s">
+      <c r="V10" s="132">
+        <v>3</v>
+      </c>
+      <c r="W10" s="132">
+        <v>3</v>
+      </c>
+      <c r="X10" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="Y10" s="135" t="s">
+      <c r="Y10" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="Z10" s="135" t="s">
+      <c r="Z10" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="AA10" s="135" t="s">
+      <c r="AA10" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="AB10" s="135" t="s">
+      <c r="AB10" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="AC10" s="141" t="s">
+      <c r="AC10" s="138" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="133" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="133">
+      <c r="D11" s="130">
         <v>36.6</v>
       </c>
-      <c r="E11" s="133" t="s">
+      <c r="E11" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="133">
-        <v>3</v>
-      </c>
-      <c r="G11" s="133">
-        <v>3</v>
-      </c>
-      <c r="H11" s="133">
-        <v>1</v>
-      </c>
-      <c r="I11" s="133">
+      <c r="F11" s="130">
+        <v>3</v>
+      </c>
+      <c r="G11" s="130">
+        <v>3</v>
+      </c>
+      <c r="H11" s="130">
+        <v>1</v>
+      </c>
+      <c r="I11" s="130">
         <v>2</v>
       </c>
-      <c r="J11" s="133">
-        <v>1</v>
-      </c>
-      <c r="K11" s="133">
-        <v>1</v>
-      </c>
-      <c r="L11" s="133" t="s">
+      <c r="J11" s="130">
+        <v>1</v>
+      </c>
+      <c r="K11" s="130">
+        <v>1</v>
+      </c>
+      <c r="L11" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="133" t="s">
+      <c r="M11" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="133">
+      <c r="N11" s="130">
         <v>2</v>
       </c>
-      <c r="O11" s="133">
+      <c r="O11" s="130">
         <v>6</v>
       </c>
-      <c r="P11" s="133" t="s">
+      <c r="P11" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="133" t="s">
+      <c r="Q11" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="133">
-        <v>4</v>
-      </c>
-      <c r="S11" s="133">
+      <c r="R11" s="130">
+        <v>4</v>
+      </c>
+      <c r="S11" s="130">
         <v>7</v>
       </c>
-      <c r="T11" s="133" t="s">
+      <c r="T11" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="133" t="s">
+      <c r="U11" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="133">
-        <v>3</v>
-      </c>
-      <c r="W11" s="133">
+      <c r="V11" s="130">
+        <v>3</v>
+      </c>
+      <c r="W11" s="130">
         <v>8</v>
       </c>
-      <c r="X11" s="133" t="s">
+      <c r="X11" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="133" t="s">
+      <c r="Y11" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="133" t="s">
+      <c r="Z11" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="133" t="s">
+      <c r="AA11" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="AB11" s="133" t="s">
+      <c r="AB11" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="AC11" s="142" t="s">
+      <c r="AC11" s="139" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -12469,11 +12600,11 @@
       <c r="AB12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AC12" s="139" t="s">
+      <c r="AC12" s="136" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -12558,11 +12689,11 @@
       <c r="AB13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AC13" s="138" t="s">
+      <c r="AC13" s="135" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -12647,11 +12778,11 @@
       <c r="AB14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AC14" s="139" t="s">
+      <c r="AC14" s="136" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -12736,7 +12867,7 @@
       <c r="AB15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AC15" s="143" t="s">
+      <c r="AC15" s="140" t="s">
         <v>81</v>
       </c>
     </row>
